--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068ACFF-C4D1-364A-9CEA-EF6CE4F82AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98308A-3A85-F248-8FE8-446AB9507F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2564,12 +2564,6 @@
     <t>idBy</t>
   </si>
   <si>
-    <t>assOcc</t>
-  </si>
-  <si>
-    <t>assTaxa</t>
-  </si>
-  <si>
     <t>vTaxonRank</t>
   </si>
   <si>
@@ -2895,6 +2889,12 @@
   </si>
   <si>
     <t>[conf]</t>
+  </si>
+  <si>
+    <t>assColl</t>
+  </si>
+  <si>
+    <t>assCollTaxa</t>
   </si>
 </sst>
 </file>
@@ -3385,10 +3385,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,43 +3430,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>3</v>
@@ -3478,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>4</v>
@@ -3490,34 +3490,34 @@
         <v>5</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>6</v>
@@ -3537,37 +3537,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3">
         <v>19810528</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -3585,34 +3585,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3">
         <v>19810528</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -3629,34 +3629,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>19810528</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3670,34 +3670,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3">
         <v>19810528</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -3712,34 +3712,34 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>19810528</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -3754,34 +3754,34 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3">
         <v>19810528</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3795,34 +3795,34 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3">
         <v>19810528</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF8"/>
     </row>
@@ -3837,34 +3837,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>19810528</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF9"/>
     </row>
@@ -3879,34 +3879,34 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3">
         <v>19810528</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -3921,35 +3921,35 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3">
         <v>19810528</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O11"/>
       <c r="P11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -3964,34 +3964,34 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3">
         <v>19810528</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF12"/>
     </row>
@@ -4006,35 +4006,35 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3">
         <v>19810528</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O13"/>
       <c r="P13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
@@ -4051,35 +4051,35 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3">
         <v>19810528</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O14"/>
       <c r="P14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF14"/>
     </row>
@@ -4094,35 +4094,35 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3">
         <v>19810528</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O15"/>
       <c r="P15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF15"/>
     </row>
@@ -4137,35 +4137,35 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3">
         <v>19810528</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16"/>
       <c r="P16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF16"/>
     </row>
@@ -4180,35 +4180,35 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3">
         <v>19810528</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O17"/>
       <c r="P17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF17"/>
     </row>
@@ -4223,35 +4223,35 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3">
         <v>19810528</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18"/>
       <c r="P18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF18"/>
     </row>
@@ -4266,35 +4266,35 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="3">
         <v>19810528</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O19"/>
       <c r="P19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF19"/>
     </row>
@@ -4309,35 +4309,35 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="3">
         <v>19810528</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O20"/>
       <c r="P20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF20"/>
     </row>
@@ -4352,35 +4352,35 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3">
         <v>19810528</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O21"/>
       <c r="P21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -4395,35 +4395,35 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="3">
         <v>19810528</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O22"/>
       <c r="P22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF22"/>
     </row>
@@ -4438,35 +4438,35 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H23" s="3">
         <v>19810528</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O23"/>
       <c r="P23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF23"/>
     </row>
@@ -4481,31 +4481,31 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="3">
         <v>19810528</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O24"/>
       <c r="AF24"/>
@@ -4521,31 +4521,31 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H25" s="3">
         <v>19810528</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O25"/>
       <c r="AF25"/>
@@ -4561,31 +4561,31 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="3">
         <v>19810528</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O26"/>
       <c r="AF26"/>
@@ -4601,31 +4601,31 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27" s="3">
         <v>19810528</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P27"/>
       <c r="AF27"/>
@@ -4641,31 +4641,31 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" s="3">
         <v>19810528</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF28"/>
     </row>
@@ -4680,31 +4680,31 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H29" s="3">
         <v>19810528</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF29"/>
     </row>
@@ -4719,31 +4719,31 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3">
         <v>19810528</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF30"/>
     </row>
@@ -4758,34 +4758,34 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H31" s="3">
         <v>19810528</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4799,31 +4799,31 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="3">
         <v>19810528</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4837,31 +4837,31 @@
         <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H33" s="3">
         <v>19810528</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4875,31 +4875,31 @@
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H34" s="3">
         <v>19810528</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4913,31 +4913,31 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H35" s="3">
         <v>19810528</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -4951,31 +4951,31 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H36" s="3">
         <v>19810528</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4992,16 +4992,16 @@
         <v>19810528</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5015,31 +5015,31 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H38" s="3">
         <v>19810528</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5053,31 +5053,31 @@
         <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="3">
         <v>19810528</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5091,31 +5091,31 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H40" s="3">
         <v>19810528</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5129,31 +5129,31 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H41" s="3">
         <v>19810528</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5167,31 +5167,31 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H42" s="3">
         <v>19810528</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5205,31 +5205,31 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H43" s="3">
         <v>19810528</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5243,31 +5243,31 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H44" s="3">
         <v>19810528</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5281,31 +5281,31 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H45" s="3">
         <v>19810528</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5319,31 +5319,31 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H46" s="3">
         <v>19810528</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5357,34 +5357,34 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" s="3">
         <v>19810528</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5398,31 +5398,31 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H48" s="3">
         <v>19810528</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5436,31 +5436,31 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H49" s="3">
         <v>19810528</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5474,34 +5474,34 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H50" s="3">
         <v>19810528</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5515,31 +5515,31 @@
         <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H51" s="3">
         <v>19810528</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5553,31 +5553,31 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H52" s="3">
         <v>19810528</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5591,31 +5591,31 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H53" s="3">
         <v>19810528</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5629,31 +5629,31 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="3">
         <v>19810528</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5667,31 +5667,31 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H55" s="3">
         <v>19810528</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5705,34 +5705,34 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H56" s="3">
         <v>19810528</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5746,31 +5746,31 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H57" s="3">
         <v>19810528</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5784,31 +5784,31 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H58" s="3">
         <v>19810528</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5822,31 +5822,31 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H59" s="3">
         <v>19810528</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5860,31 +5860,31 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H60" s="3">
         <v>19810528</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5898,31 +5898,31 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H61" s="3">
         <v>19810528</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5936,34 +5936,34 @@
         <v>39</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF62" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5977,34 +5977,34 @@
         <v>40</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H63" s="3">
         <v>19810528</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98308A-3A85-F248-8FE8-446AB9507F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA610F1-DD45-E54C-ADB5-EA3B775B11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2573,9 +2573,6 @@
     <t>occRemarks</t>
   </si>
   <si>
-    <t>vCoodUncM</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -2895,6 +2892,9 @@
   </si>
   <si>
     <t>assCollTaxa</t>
+  </si>
+  <si>
+    <t>vCoordUncM</t>
   </si>
 </sst>
 </file>
@@ -3385,10 +3385,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:X1"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,43 +3430,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>4</v>
@@ -3493,31 +3493,31 @@
         <v>8</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>6</v>
@@ -3537,37 +3537,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3">
         <v>19810528</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -3585,34 +3585,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3">
         <v>19810528</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -3629,34 +3629,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>19810528</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3670,34 +3670,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>19810528</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -3712,34 +3712,34 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="3">
         <v>19810528</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -3754,34 +3754,34 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3">
         <v>19810528</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3795,34 +3795,34 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>19810528</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF8"/>
     </row>
@@ -3837,34 +3837,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>19810528</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF9"/>
     </row>
@@ -3879,34 +3879,34 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
         <v>19810528</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -3921,35 +3921,35 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="3">
         <v>19810528</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11"/>
       <c r="P11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -3964,34 +3964,34 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3">
         <v>19810528</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AF12"/>
     </row>
@@ -4006,35 +4006,35 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3">
         <v>19810528</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13"/>
       <c r="P13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
@@ -4051,35 +4051,35 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3">
         <v>19810528</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14"/>
       <c r="P14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF14"/>
     </row>
@@ -4094,35 +4094,35 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="3">
         <v>19810528</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15"/>
       <c r="P15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15"/>
     </row>
@@ -4137,35 +4137,35 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3">
         <v>19810528</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16"/>
       <c r="P16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF16"/>
     </row>
@@ -4180,35 +4180,35 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3">
         <v>19810528</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17"/>
       <c r="P17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF17"/>
     </row>
@@ -4223,35 +4223,35 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3">
         <v>19810528</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18"/>
       <c r="P18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF18"/>
     </row>
@@ -4266,35 +4266,35 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3">
         <v>19810528</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19"/>
       <c r="P19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF19"/>
     </row>
@@ -4309,35 +4309,35 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3">
         <v>19810528</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20"/>
       <c r="P20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20"/>
     </row>
@@ -4352,35 +4352,35 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3">
         <v>19810528</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O21"/>
       <c r="P21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -4395,35 +4395,35 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
       <c r="H22" s="3">
         <v>19810528</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22"/>
       <c r="P22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF22"/>
     </row>
@@ -4438,35 +4438,35 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3">
         <v>19810528</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23"/>
       <c r="P23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF23"/>
     </row>
@@ -4481,31 +4481,31 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="3">
         <v>19810528</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24"/>
       <c r="AF24"/>
@@ -4521,31 +4521,31 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="3">
         <v>19810528</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25"/>
       <c r="AF25"/>
@@ -4561,31 +4561,31 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="3">
         <v>19810528</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O26"/>
       <c r="AF26"/>
@@ -4601,31 +4601,31 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="3">
         <v>19810528</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27"/>
       <c r="AF27"/>
@@ -4641,31 +4641,31 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="3">
         <v>19810528</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF28"/>
     </row>
@@ -4680,31 +4680,31 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3">
         <v>19810528</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29"/>
     </row>
@@ -4719,31 +4719,31 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="3">
         <v>19810528</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30"/>
     </row>
@@ -4758,34 +4758,34 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="3">
         <v>19810528</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4799,31 +4799,31 @@
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" s="3">
         <v>19810528</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4837,31 +4837,31 @@
         <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" s="3">
         <v>19810528</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4875,31 +4875,31 @@
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="3">
         <v>19810528</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4913,31 +4913,31 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="3">
         <v>19810528</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -4951,31 +4951,31 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3">
         <v>19810528</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4992,16 +4992,16 @@
         <v>19810528</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5015,31 +5015,31 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" s="3">
         <v>19810528</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5053,31 +5053,31 @@
         <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" s="3">
         <v>19810528</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5091,31 +5091,31 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="3">
         <v>19810528</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5129,31 +5129,31 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
         <v>82</v>
       </c>
-      <c r="E41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>83</v>
-      </c>
       <c r="H41" s="3">
         <v>19810528</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5167,31 +5167,31 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="3">
         <v>19810528</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5205,31 +5205,31 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="3">
         <v>19810528</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5243,31 +5243,31 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="3">
         <v>19810528</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5281,31 +5281,31 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="3">
         <v>19810528</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5319,31 +5319,31 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" s="3">
         <v>19810528</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5357,34 +5357,34 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF47" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF47" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5398,31 +5398,31 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="3">
         <v>19810528</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5436,31 +5436,31 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="3">
         <v>19810528</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5474,34 +5474,34 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF50" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF50" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5515,31 +5515,31 @@
         <v>28</v>
       </c>
       <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
         <v>95</v>
       </c>
-      <c r="E51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>96</v>
-      </c>
       <c r="H51" s="3">
         <v>19810528</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5553,31 +5553,31 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H52" s="3">
         <v>19810528</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5591,31 +5591,31 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H53" s="3">
         <v>19810528</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5629,31 +5629,31 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="3">
         <v>19810528</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5667,31 +5667,31 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
         <v>102</v>
       </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>103</v>
-      </c>
       <c r="H55" s="3">
         <v>19810528</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5705,34 +5705,34 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF56" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF56" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5746,31 +5746,31 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H57" s="3">
         <v>19810528</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5784,31 +5784,31 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" s="3">
         <v>19810528</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5822,31 +5822,31 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" s="3">
         <v>19810528</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5860,31 +5860,31 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H60" s="3">
         <v>19810528</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5898,31 +5898,31 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H61" s="3">
         <v>19810528</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5936,34 +5936,34 @@
         <v>39</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H62" s="3">
         <v>19810528</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5977,34 +5977,34 @@
         <v>40</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF63" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF63" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CEAFF-D743-264E-80F4-E8CE97F46819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C6853-6821-2745-810A-D941D2DC9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="362">
   <si>
     <t>habitat</t>
   </si>
@@ -3183,6 +3183,384 @@
   </si>
   <si>
     <t xml:space="preserve">new species name not found in region </t>
+  </si>
+  <si>
+    <t>Cirsium arvense</t>
+  </si>
+  <si>
+    <t>Myosotis laxa</t>
+  </si>
+  <si>
+    <t>Myosotis cf. laxa</t>
+  </si>
+  <si>
+    <t>Rubus discolor</t>
+  </si>
+  <si>
+    <t>Rubus armeniacus</t>
+  </si>
+  <si>
+    <t>Veronica americana</t>
+  </si>
+  <si>
+    <t>Geum macrophyllum</t>
+  </si>
+  <si>
+    <t>Sherardia arvensis</t>
+  </si>
+  <si>
+    <t>Allium cernuum</t>
+  </si>
+  <si>
+    <t>Carex deweyana</t>
+  </si>
+  <si>
+    <t>Festuca subuliflora</t>
+  </si>
+  <si>
+    <t>Selaginella wallacei</t>
+  </si>
+  <si>
+    <t>Mimulus guttatus</t>
+  </si>
+  <si>
+    <t>Erythranthe guttata</t>
+  </si>
+  <si>
+    <t>Pityrogramma triangularis</t>
+  </si>
+  <si>
+    <t>Pentagramma triangularis</t>
+  </si>
+  <si>
+    <t>Mimulus alsinoides</t>
+  </si>
+  <si>
+    <t>Erythranthe alsinoides</t>
+  </si>
+  <si>
+    <t>Monotropa uniflora</t>
+  </si>
+  <si>
+    <t>Chimaphila umbellata</t>
+  </si>
+  <si>
+    <t>Carex lyngbyei</t>
+  </si>
+  <si>
+    <t>Arabis glabra</t>
+  </si>
+  <si>
+    <t>Pyrus fusca</t>
+  </si>
+  <si>
+    <t>Malus fusca</t>
+  </si>
+  <si>
+    <t>Hypericum anagalloides</t>
+  </si>
+  <si>
+    <t>Mentha arvensis</t>
+  </si>
+  <si>
+    <t>Mentha arvense</t>
+  </si>
+  <si>
+    <t>Urtica dioica</t>
+  </si>
+  <si>
+    <t>Alnus rubra</t>
+  </si>
+  <si>
+    <t>Stellaria crispa</t>
+  </si>
+  <si>
+    <t>Trifolium microcephalum</t>
+  </si>
+  <si>
+    <t>Lepidium virginicum</t>
+  </si>
+  <si>
+    <t>Taxus brevifolia</t>
+  </si>
+  <si>
+    <t>Eriophyllum lanatum</t>
+  </si>
+  <si>
+    <t>Sonchus asper</t>
+  </si>
+  <si>
+    <t>Clarkia amoena</t>
+  </si>
+  <si>
+    <t>Agoseris grandiflora</t>
+  </si>
+  <si>
+    <t>Hypochaeris glabra</t>
+  </si>
+  <si>
+    <t>Tsuga heterophylla</t>
+  </si>
+  <si>
+    <t>Trifolium oliganthum</t>
+  </si>
+  <si>
+    <t>Arctium minus</t>
+  </si>
+  <si>
+    <t>Rosa nutkana</t>
+  </si>
+  <si>
+    <t>Gnaphalium uliginosum</t>
+  </si>
+  <si>
+    <t>Oenothera sarmentosa</t>
+  </si>
+  <si>
+    <t>unable to decipher specific epithet</t>
+  </si>
+  <si>
+    <t>Lemna minor</t>
+  </si>
+  <si>
+    <t>Ranunculus aquariatum</t>
+  </si>
+  <si>
+    <t>Ranunculus aquatilis</t>
+  </si>
+  <si>
+    <t>Prunus emarginata</t>
+  </si>
+  <si>
+    <t>Adenocaulon bicolor</t>
+  </si>
+  <si>
+    <t>Satureja douglasii</t>
+  </si>
+  <si>
+    <t>Clinopodium douglasii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originally recorded as Yerba buena, crossed out </t>
+  </si>
+  <si>
+    <t>Achlys triphylla</t>
+  </si>
+  <si>
+    <t>Populus tremuloides</t>
+  </si>
+  <si>
+    <t>Typha latifolia</t>
+  </si>
+  <si>
+    <t>Eleocharis palustris</t>
+  </si>
+  <si>
+    <t>originally recorded as Spike rush, crossed out</t>
+  </si>
+  <si>
+    <t>Veronica officinalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fen far west of lake </t>
+  </si>
+  <si>
+    <t>Ranunculus flammula</t>
+  </si>
+  <si>
+    <t>Campanula scouleri</t>
+  </si>
+  <si>
+    <t>Acer glabrum</t>
+  </si>
+  <si>
+    <t>Stellaria media</t>
+  </si>
+  <si>
+    <t>Myriophyllum</t>
+  </si>
+  <si>
+    <t>Myriophyllum cf. sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potentilla  cf. sp. </t>
+  </si>
+  <si>
+    <t>sp. Bracketed</t>
+  </si>
+  <si>
+    <t>Potamogeton natans</t>
+  </si>
+  <si>
+    <t>Cardamine pensylvanica</t>
+  </si>
+  <si>
+    <t>Berberis aquifolium</t>
+  </si>
+  <si>
+    <t>Lathyrus nevadensis</t>
+  </si>
+  <si>
+    <t>Ranunculus acris</t>
+  </si>
+  <si>
+    <t>Anthriscus scandicina</t>
+  </si>
+  <si>
+    <t>Anthriscus caucalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asterisk beside taxon name; originally Umbellifera? </t>
+  </si>
+  <si>
+    <t>Phleum pratense</t>
+  </si>
+  <si>
+    <t>Nuphar polysepala</t>
+  </si>
+  <si>
+    <t>Galium trifidum</t>
+  </si>
+  <si>
+    <t>Carex obnupta</t>
+  </si>
+  <si>
+    <t>Equisetum arvense</t>
+  </si>
+  <si>
+    <t>Veronica scutellata</t>
+  </si>
+  <si>
+    <t>Goodyera oblongifolia</t>
+  </si>
+  <si>
+    <t>Arenaria macrophylla</t>
+  </si>
+  <si>
+    <t>Moehringia macrophylla</t>
+  </si>
+  <si>
+    <t>Arabis hirsuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very rare in area, maybe I did not decipher name right? </t>
+  </si>
+  <si>
+    <t>small island on east end of Prevost Island</t>
+  </si>
+  <si>
+    <t>Elymus mollis</t>
+  </si>
+  <si>
+    <t>Leymus mollis</t>
+  </si>
+  <si>
+    <t>Plectritis congesta</t>
+  </si>
+  <si>
+    <t>Sedum lanceolatum</t>
+  </si>
+  <si>
+    <t>Vicia americana</t>
+  </si>
+  <si>
+    <t>Camassia leichtlinii</t>
+  </si>
+  <si>
+    <t>Zygadenus venenosus</t>
+  </si>
+  <si>
+    <t>Toxicoscordion venenosum</t>
+  </si>
+  <si>
+    <t>on islands to south of Prevost Island</t>
+  </si>
+  <si>
+    <t>North East point of Prevost Island</t>
+  </si>
+  <si>
+    <t>cannot decipher genus name</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Lychnis coronaria</t>
+  </si>
+  <si>
+    <t>Silene coronaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spreading </t>
+  </si>
+  <si>
+    <t>Listera cordata</t>
+  </si>
+  <si>
+    <t>Neottia cordata</t>
+  </si>
+  <si>
+    <t>G. purpurea</t>
+  </si>
+  <si>
+    <t>[G] microcephala</t>
+  </si>
+  <si>
+    <t>[G] purpurea</t>
+  </si>
+  <si>
+    <t>around old light keepers house</t>
+  </si>
+  <si>
+    <t>Vinca major</t>
+  </si>
+  <si>
+    <t>persistant</t>
+  </si>
+  <si>
+    <t>qualitative</t>
+  </si>
+  <si>
+    <t>Sedum album</t>
+  </si>
+  <si>
+    <t>Santolina chamaecyparissus</t>
+  </si>
+  <si>
+    <t>Hypericum calycinum</t>
+  </si>
+  <si>
+    <t>varigated</t>
+  </si>
+  <si>
+    <t>Cytisus scoparius</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single at sea edge </t>
+  </si>
+  <si>
+    <t>Linum valerian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot decipher name it was replaced with </t>
+  </si>
+  <si>
+    <t>vegetative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-flowering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myriophyllum cf. sp. </t>
   </si>
 </sst>
 </file>
@@ -3359,10 +3737,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3684,12 +4062,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7442,6 +7820,9 @@
       <c r="A100" s="3">
         <v>4</v>
       </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>177</v>
       </c>
@@ -7456,6 +7837,21 @@
       </c>
       <c r="G100" s="3" t="s">
         <v>178</v>
+      </c>
+      <c r="H100" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>185</v>
@@ -7465,6 +7861,9 @@
       <c r="A101" s="3">
         <v>4</v>
       </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
       <c r="C101" s="3" t="s">
         <v>182</v>
       </c>
@@ -7480,11 +7879,32 @@
       <c r="G101" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="H101" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB101" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>4</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3</v>
+      </c>
       <c r="C102" s="3" t="s">
         <v>187</v>
       </c>
@@ -7497,11 +7917,32 @@
       <c r="F102" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="H102" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB102" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>4</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4</v>
+      </c>
       <c r="C103" s="3" t="s">
         <v>191</v>
       </c>
@@ -7514,8 +7955,29 @@
       <c r="F103" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="H103" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="104" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>4</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5</v>
+      </c>
       <c r="C104" s="3" t="s">
         <v>193</v>
       </c>
@@ -7528,11 +7990,32 @@
       <c r="F104" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="H104" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB104" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>4</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6</v>
+      </c>
       <c r="C105" s="3" t="s">
         <v>189</v>
       </c>
@@ -7545,11 +8028,32 @@
       <c r="F105" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="H105" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB105" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>4</v>
+      </c>
+      <c r="B106" s="3">
+        <v>7</v>
+      </c>
       <c r="C106" s="3" t="s">
         <v>196</v>
       </c>
@@ -7562,11 +8066,32 @@
       <c r="F106" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="H106" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB106" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>4</v>
+      </c>
+      <c r="B107" s="3">
+        <v>8</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>199</v>
       </c>
@@ -7579,8 +8104,29 @@
       <c r="F107" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="H107" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="108" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>4</v>
+      </c>
+      <c r="B108" s="3">
+        <v>9</v>
+      </c>
       <c r="C108" s="3" t="s">
         <v>200</v>
       </c>
@@ -7593,8 +8139,29 @@
       <c r="F108" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="H108" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="109" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>4</v>
+      </c>
+      <c r="B109" s="3">
+        <v>10</v>
+      </c>
       <c r="C109" s="3" t="s">
         <v>201</v>
       </c>
@@ -7607,11 +8174,32 @@
       <c r="F109" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="H109" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AF109" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3">
+        <v>11</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>203</v>
       </c>
@@ -7624,11 +8212,32 @@
       <c r="F110" s="3" t="s">
         <v>203</v>
       </c>
+      <c r="H110" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB110" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>4</v>
+      </c>
+      <c r="B111" s="3">
+        <v>12</v>
+      </c>
       <c r="C111" s="3" t="s">
         <v>204</v>
       </c>
@@ -7641,8 +8250,29 @@
       <c r="F111" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="H111" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="112" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>4</v>
+      </c>
+      <c r="B112" s="3">
+        <v>13</v>
+      </c>
       <c r="C112" s="3" t="s">
         <v>205</v>
       </c>
@@ -7652,11 +8282,32 @@
       <c r="E112" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="113" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H112" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>4</v>
+      </c>
+      <c r="B113" s="3">
+        <v>14</v>
+      </c>
       <c r="C113" s="3" t="s">
         <v>206</v>
       </c>
@@ -7666,11 +8317,32 @@
       <c r="E113" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="114" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H113" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>4</v>
+      </c>
+      <c r="B114" s="3">
+        <v>15</v>
+      </c>
       <c r="C114" s="3" t="s">
         <v>207</v>
       </c>
@@ -7683,8 +8355,29 @@
       <c r="F114" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="115" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H114" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>4</v>
+      </c>
+      <c r="B115" s="3">
+        <v>16</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>209</v>
       </c>
@@ -7697,8 +8390,29 @@
       <c r="F115" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="116" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H115" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>4</v>
+      </c>
+      <c r="B116" s="3">
+        <v>17</v>
+      </c>
       <c r="C116" s="3" t="s">
         <v>210</v>
       </c>
@@ -7711,8 +8425,29 @@
       <c r="F116" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="117" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="H116" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3">
+        <v>18</v>
+      </c>
       <c r="C117" s="3" t="s">
         <v>211</v>
       </c>
@@ -7725,8 +8460,29 @@
       <c r="F117" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="118" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H117" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
+        <v>19</v>
+      </c>
       <c r="C118" s="3" t="s">
         <v>180</v>
       </c>
@@ -7739,8 +8495,29 @@
       <c r="F118" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="119" spans="3:32" ht="102" x14ac:dyDescent="0.2">
+      <c r="H118" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>4</v>
+      </c>
+      <c r="B119" s="3">
+        <v>20</v>
+      </c>
       <c r="C119" s="3" t="s">
         <v>181</v>
       </c>
@@ -7753,11 +8530,32 @@
       <c r="F119" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="H119" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB119" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3">
+        <v>21</v>
+      </c>
       <c r="C120" s="3" t="s">
         <v>213</v>
       </c>
@@ -7767,11 +8565,32 @@
       <c r="E120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="121" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H120" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>4</v>
+      </c>
+      <c r="B121" s="3">
+        <v>22</v>
+      </c>
       <c r="C121" s="3" t="s">
         <v>215</v>
       </c>
@@ -7784,8 +8603,29 @@
       <c r="F121" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="122" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H121" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>4</v>
+      </c>
+      <c r="B122" s="3">
+        <v>23</v>
+      </c>
       <c r="C122" s="3" t="s">
         <v>216</v>
       </c>
@@ -7798,8 +8638,29 @@
       <c r="F122" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="123" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H122" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3">
+        <v>24</v>
+      </c>
       <c r="C123" s="3" t="s">
         <v>217</v>
       </c>
@@ -7809,19 +8670,76 @@
       <c r="E123" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="124" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H123" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3">
+        <v>25</v>
+      </c>
+      <c r="H124" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AF124" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3">
+        <v>26</v>
+      </c>
       <c r="C125" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="H125" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="O125" s="3" t="s">
         <v>220</v>
       </c>
@@ -7829,7 +8747,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3">
+        <v>27</v>
+      </c>
       <c r="C126" s="3" t="s">
         <v>222</v>
       </c>
@@ -7842,8 +8766,29 @@
       <c r="F126" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="127" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="H126" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>4</v>
+      </c>
+      <c r="B127" s="3">
+        <v>28</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>223</v>
       </c>
@@ -7856,11 +8801,32 @@
       <c r="F127" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="H127" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB127" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>4</v>
+      </c>
+      <c r="B128" s="3">
+        <v>29</v>
+      </c>
       <c r="C128" s="3" t="s">
         <v>224</v>
       </c>
@@ -7873,8 +8839,29 @@
       <c r="F128" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="129" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H128" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>4</v>
+      </c>
+      <c r="B129" s="3">
+        <v>30</v>
+      </c>
       <c r="C129" s="3" t="s">
         <v>226</v>
       </c>
@@ -7887,16 +8874,58 @@
       <c r="F129" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="130" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H129" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3">
+        <v>31</v>
+      </c>
       <c r="C130" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="H130" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AF130" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="3:32" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>4</v>
+      </c>
+      <c r="B131" s="3">
+        <v>32</v>
+      </c>
       <c r="C131" s="3" t="s">
         <v>229</v>
       </c>
@@ -7909,11 +8938,32 @@
       <c r="F131" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="H131" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AB131" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3">
+        <v>33</v>
+      </c>
       <c r="C132" s="3" t="s">
         <v>231</v>
       </c>
@@ -7926,8 +8976,29 @@
       <c r="F132" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="133" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H132" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3">
+        <v>34</v>
+      </c>
       <c r="C133" s="3" t="s">
         <v>232</v>
       </c>
@@ -7940,8 +9011,29 @@
       <c r="F133" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="134" spans="3:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="H133" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>4</v>
+      </c>
+      <c r="B134" s="3">
+        <v>35</v>
+      </c>
       <c r="C134" s="3" t="s">
         <v>233</v>
       </c>
@@ -7954,8 +9046,3082 @@
       <c r="F134" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="H134" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AF134" s="3" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>5</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H135" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H136" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB136" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>5</v>
+      </c>
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H138" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H139" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H140" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>5</v>
+      </c>
+      <c r="B141" s="3">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H141" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H142" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3">
+        <v>9</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H143" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3">
+        <v>10</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3">
+        <v>11</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H145" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3">
+        <v>12</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H146" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>5</v>
+      </c>
+      <c r="B147" s="3">
+        <v>13</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H147" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3">
+        <v>14</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H148" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>5</v>
+      </c>
+      <c r="B149" s="3">
+        <v>15</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H149" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3">
+        <v>16</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H150" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3">
+        <v>17</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H151" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3">
+        <v>18</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H152" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>5</v>
+      </c>
+      <c r="B153" s="3">
+        <v>19</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H153" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H154" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3">
+        <v>21</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H155" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3">
+        <v>22</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H156" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3">
+        <v>23</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H157" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3">
+        <v>24</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H158" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3">
+        <v>25</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H159" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3">
+        <v>26</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H160" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>5</v>
+      </c>
+      <c r="B161" s="3">
+        <v>27</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H161" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>5</v>
+      </c>
+      <c r="B162" s="3">
+        <v>28</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H162" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>5</v>
+      </c>
+      <c r="B163" s="3">
+        <v>29</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H163" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>5</v>
+      </c>
+      <c r="B164" s="3">
+        <v>30</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H164" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3">
+        <v>31</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H165" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3">
+        <v>32</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H166" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3">
+        <v>33</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H167" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>5</v>
+      </c>
+      <c r="B168" s="3">
+        <v>34</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H168" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>5</v>
+      </c>
+      <c r="B169" s="3">
+        <v>35</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H169" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3">
+        <v>36</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H170" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>6</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H171" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>6</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H172" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>6</v>
+      </c>
+      <c r="B173" s="3">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H173" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF173" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>6</v>
+      </c>
+      <c r="B174" s="3">
+        <v>4</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H174" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H175" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H176" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>6</v>
+      </c>
+      <c r="B177" s="3">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H177" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>6</v>
+      </c>
+      <c r="B178" s="3">
+        <v>8</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H178" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB178" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>6</v>
+      </c>
+      <c r="B179" s="3">
+        <v>9</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H179" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>6</v>
+      </c>
+      <c r="B180" s="3">
+        <v>10</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H180" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>6</v>
+      </c>
+      <c r="B181" s="3">
+        <v>11</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H181" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>6</v>
+      </c>
+      <c r="B182" s="3">
+        <v>12</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H182" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB182" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>6</v>
+      </c>
+      <c r="B183" s="3">
+        <v>13</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H183" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>6</v>
+      </c>
+      <c r="B184" s="3">
+        <v>14</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H184" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>6</v>
+      </c>
+      <c r="B185" s="3">
+        <v>15</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H185" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>6</v>
+      </c>
+      <c r="B186" s="3">
+        <v>16</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H186" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>6</v>
+      </c>
+      <c r="B187" s="3">
+        <v>17</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H187" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>6</v>
+      </c>
+      <c r="B188" s="3">
+        <v>18</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H188" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>6</v>
+      </c>
+      <c r="B189" s="3">
+        <v>19</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H189" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>6</v>
+      </c>
+      <c r="B190" s="3">
+        <v>20</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H190" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB190" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>6</v>
+      </c>
+      <c r="B191" s="3">
+        <v>21</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H191" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>6</v>
+      </c>
+      <c r="B192" s="3">
+        <v>22</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H192" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>6</v>
+      </c>
+      <c r="B193" s="3">
+        <v>23</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H193" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>6</v>
+      </c>
+      <c r="B194" s="3">
+        <v>24</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H194" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>6</v>
+      </c>
+      <c r="B195" s="3">
+        <v>25</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H195" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>6</v>
+      </c>
+      <c r="B196" s="3">
+        <v>26</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H196" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB196" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>6</v>
+      </c>
+      <c r="B197" s="3">
+        <v>27</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H197" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>6</v>
+      </c>
+      <c r="B198" s="3">
+        <v>28</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H198" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>6</v>
+      </c>
+      <c r="B199" s="3">
+        <v>29</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H199" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>6</v>
+      </c>
+      <c r="B200" s="3">
+        <v>30</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H200" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>6</v>
+      </c>
+      <c r="B201" s="3">
+        <v>31</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H201" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>6</v>
+      </c>
+      <c r="B202" s="3">
+        <v>32</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H202" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>6</v>
+      </c>
+      <c r="B203" s="3">
+        <v>33</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H203" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>6</v>
+      </c>
+      <c r="B204" s="3">
+        <v>34</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H204" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>6</v>
+      </c>
+      <c r="B205" s="3">
+        <v>35</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H205" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF205" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>7</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H206" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C207" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H207" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C208" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H208" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C209" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H209" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C210" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H210" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C211" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H211" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C212" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H212" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF212" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="213" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C213" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H213" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB213" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="214" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C214" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H214" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF214" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="215" spans="3:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="C215" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H215" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C216" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H216" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P216" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z216" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA216" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB216" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C217" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H217" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z217" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA217" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="218" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C218" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H218" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z218" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA218" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="219" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C219" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H219" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z219" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA219" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C220" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H220" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z220" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA220" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB220" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="221" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C221" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H221" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB221" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC221" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF221" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="222" spans="3:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="C222" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H222" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P222" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C6853-6821-2745-810A-D941D2DC9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8F3F6-CD30-A24A-81DC-7539E11746DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7B2C3724-E16F-4E44-BBEB-4623A744B7BD}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7B2C3724-E16F-4E44-BBEB-4623A744B7BD}">
       <text>
         <r>
           <rPr>
@@ -724,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E5551A57-131E-2E4A-BE34-80094E93E54E}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E5551A57-131E-2E4A-BE34-80094E93E54E}">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{91A5A8D8-F682-6D4D-B2DC-D0D01A848E3A}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{91A5A8D8-F682-6D4D-B2DC-D0D01A848E3A}">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{EBD3CD19-9BFE-5B48-80F1-5C82A7D1F51C}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{EBD3CD19-9BFE-5B48-80F1-5C82A7D1F51C}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30FD4B1D-23D7-1145-B056-E0D6B319A5EB}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{30FD4B1D-23D7-1145-B056-E0D6B319A5EB}">
       <text>
         <r>
           <rPr>
@@ -3715,7 +3715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3738,9 +3738,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4065,9 +4062,9 @@
   <dimension ref="A1:AF222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
+      <selection pane="bottomLeft" activeCell="M216" sqref="M216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4078,12 +4075,12 @@
     <col min="4" max="4" width="24.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="22.1640625" style="3" customWidth="1"/>
@@ -4126,23 +4123,23 @@
       <c r="F1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -4224,19 +4221,19 @@
       <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3">
-        <v>19810528</v>
+      <c r="G2" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -4269,19 +4266,19 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3">
-        <v>19810528</v>
+      <c r="G3" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -4310,19 +4307,19 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3">
-        <v>19810528</v>
+      <c r="G4" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -4348,19 +4345,19 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3">
-        <v>19810528</v>
+      <c r="G5" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -4387,19 +4384,19 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3">
-        <v>19810528</v>
+      <c r="G6" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -4426,19 +4423,19 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="3">
-        <v>19810528</v>
+      <c r="G7" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="3" t="s">
@@ -4464,19 +4461,19 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3">
-        <v>19810528</v>
+      <c r="G8" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
@@ -4503,19 +4500,19 @@
       <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3">
-        <v>19810528</v>
+      <c r="G9" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -4542,19 +4539,19 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="3">
-        <v>19810528</v>
+      <c r="G10" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -4581,19 +4578,19 @@
       <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="3">
-        <v>19810528</v>
+      <c r="G11" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O11"/>
@@ -4621,19 +4618,19 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="3">
-        <v>19810528</v>
+      <c r="G12" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="3" t="s">
@@ -4660,22 +4657,22 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" s="3">
-        <v>19810528</v>
+      <c r="G13" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L13"/>
       <c r="O13"/>
       <c r="P13" s="3" t="s">
         <v>27</v>
@@ -4703,19 +4700,19 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3">
-        <v>19810528</v>
+      <c r="G14" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O14"/>
@@ -4743,19 +4740,19 @@
       <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="3">
-        <v>19810528</v>
+      <c r="G15" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O15"/>
@@ -4783,19 +4780,19 @@
       <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="3">
-        <v>19810528</v>
+      <c r="G16" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O16"/>
@@ -4823,19 +4820,19 @@
       <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="3">
-        <v>19810528</v>
+      <c r="G17" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O17"/>
@@ -4863,19 +4860,19 @@
       <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="3">
-        <v>19810528</v>
+      <c r="G18" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O18"/>
@@ -4903,19 +4900,19 @@
       <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="3">
-        <v>19810528</v>
+      <c r="G19" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O19"/>
@@ -4943,19 +4940,19 @@
       <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="3">
-        <v>19810528</v>
+      <c r="G20" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O20"/>
@@ -4983,19 +4980,19 @@
       <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="3">
-        <v>19810528</v>
+      <c r="G21" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O21"/>
@@ -5023,19 +5020,19 @@
       <c r="F22" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="3">
-        <v>19810528</v>
+      <c r="G22" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O22"/>
@@ -5063,19 +5060,19 @@
       <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3">
-        <v>19810528</v>
+      <c r="G23" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O23"/>
@@ -5103,19 +5100,19 @@
       <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="3">
-        <v>19810528</v>
+      <c r="G24" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O24"/>
@@ -5140,19 +5137,19 @@
       <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="3">
-        <v>19810528</v>
+      <c r="G25" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O25"/>
@@ -5177,19 +5174,19 @@
       <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="3">
-        <v>19810528</v>
+      <c r="G26" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O26"/>
@@ -5214,19 +5211,19 @@
       <c r="F27" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="3">
-        <v>19810528</v>
+      <c r="G27" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P27"/>
@@ -5251,19 +5248,19 @@
       <c r="F28" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="3">
-        <v>19810528</v>
+      <c r="G28" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF28"/>
@@ -5287,19 +5284,19 @@
       <c r="F29" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="3">
-        <v>19810528</v>
+      <c r="G29" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF29"/>
@@ -5323,19 +5320,19 @@
       <c r="F30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="3">
-        <v>19810528</v>
+      <c r="G30" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF30"/>
@@ -5359,22 +5356,22 @@
       <c r="F31" t="s">
         <v>48</v>
       </c>
-      <c r="G31"/>
-      <c r="H31" s="3">
-        <v>19810528</v>
+      <c r="G31" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L31"/>
       <c r="AB31" t="s">
         <v>119</v>
       </c>
@@ -5401,19 +5398,19 @@
       <c r="F32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="3">
-        <v>19810528</v>
+      <c r="G32" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5436,19 +5433,19 @@
       <c r="F33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="3">
-        <v>19810528</v>
+      <c r="G33" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5471,19 +5468,19 @@
       <c r="F34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="3">
-        <v>19810528</v>
+      <c r="G34" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5506,19 +5503,19 @@
       <c r="F35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="3">
-        <v>19810528</v>
+      <c r="G35" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5541,19 +5538,19 @@
       <c r="F36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H36" s="3">
-        <v>19810528</v>
+      <c r="G36" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5564,19 +5561,19 @@
       <c r="B37">
         <v>14</v>
       </c>
-      <c r="H37" s="3">
-        <v>19810528</v>
+      <c r="G37" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5599,19 +5596,19 @@
       <c r="F38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="3">
-        <v>19810528</v>
+      <c r="G38" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5634,19 +5631,19 @@
       <c r="F39" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="3">
-        <v>19810528</v>
+      <c r="G39" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5669,19 +5666,19 @@
       <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="3">
-        <v>19810528</v>
+      <c r="G40" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5704,19 +5701,19 @@
       <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="3">
-        <v>19810528</v>
+      <c r="G41" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5739,19 +5736,19 @@
       <c r="F42" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="3">
-        <v>19810528</v>
+      <c r="G42" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5774,19 +5771,19 @@
       <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="H43" s="3">
-        <v>19810528</v>
+      <c r="G43" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5809,19 +5806,19 @@
       <c r="F44" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="3">
-        <v>19810528</v>
+      <c r="G44" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5844,19 +5841,19 @@
       <c r="F45" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="3">
-        <v>19810528</v>
+      <c r="G45" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5879,19 +5876,19 @@
       <c r="F46" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="3">
-        <v>19810528</v>
+      <c r="G46" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5914,23 +5911,23 @@
       <c r="F47" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="H47" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>117</v>
@@ -5958,19 +5955,19 @@
       <c r="F48" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="3">
-        <v>19810528</v>
+      <c r="G48" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5993,19 +5990,19 @@
       <c r="F49" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="3">
-        <v>19810528</v>
+      <c r="G49" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6028,19 +6025,19 @@
       <c r="F50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H50" s="3">
-        <v>19810528</v>
+      <c r="G50" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF50" s="3" t="s">
@@ -6066,19 +6063,19 @@
       <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="3">
-        <v>19810528</v>
+      <c r="G51" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6101,19 +6098,19 @@
       <c r="F52" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="3">
-        <v>19810528</v>
+      <c r="G52" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6136,19 +6133,19 @@
       <c r="F53" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="3">
-        <v>19810528</v>
+      <c r="G53" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6171,19 +6168,19 @@
       <c r="F54" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="3">
-        <v>19810528</v>
+      <c r="G54" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6206,19 +6203,19 @@
       <c r="F55" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="3">
-        <v>19810528</v>
+      <c r="G55" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6241,23 +6238,23 @@
       <c r="F56" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="H56" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB56" s="8" t="s">
         <v>118</v>
@@ -6285,19 +6282,19 @@
       <c r="F57" t="s">
         <v>104</v>
       </c>
-      <c r="H57" s="3">
-        <v>19810528</v>
+      <c r="G57" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6320,19 +6317,19 @@
       <c r="F58" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="3">
-        <v>19810528</v>
+      <c r="G58" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6355,19 +6352,19 @@
       <c r="F59" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="3">
-        <v>19810528</v>
+      <c r="G59" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6390,19 +6387,19 @@
       <c r="F60" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="3">
-        <v>19810528</v>
+      <c r="G60" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6425,19 +6422,19 @@
       <c r="F61" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="3">
-        <v>19810528</v>
+      <c r="G61" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6460,19 +6457,19 @@
       <c r="F62" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="3">
-        <v>19810528</v>
+      <c r="G62" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB62" s="3" t="s">
@@ -6501,19 +6498,19 @@
       <c r="F63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="3">
-        <v>19810528</v>
+      <c r="G63" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB63" s="3" t="s">
@@ -6542,19 +6539,19 @@
       <c r="F64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H64" s="3">
-        <v>19810528</v>
+      <c r="G64" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6577,19 +6574,19 @@
       <c r="F65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H65" s="3">
-        <v>19810528</v>
+      <c r="G65" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6612,23 +6609,23 @@
       <c r="F66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H66" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>156</v>
@@ -6656,19 +6653,19 @@
       <c r="F67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H67" s="3">
-        <v>19810528</v>
+      <c r="G67" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6691,19 +6688,19 @@
       <c r="F68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H68" s="3">
-        <v>19810528</v>
+      <c r="G68" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N68" s="3" t="s">
@@ -6735,19 +6732,19 @@
       <c r="F69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H69" s="3">
-        <v>19810528</v>
+      <c r="G69" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6770,19 +6767,19 @@
       <c r="F70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H70" s="3">
-        <v>19810528</v>
+      <c r="G70" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6805,19 +6802,19 @@
       <c r="F71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="3">
-        <v>19810528</v>
+      <c r="G71" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6840,19 +6837,19 @@
       <c r="F72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H72" s="3">
-        <v>19810528</v>
+      <c r="G72" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6875,19 +6872,19 @@
       <c r="F73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H73" s="3">
-        <v>19810528</v>
+      <c r="G73" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6910,19 +6907,19 @@
       <c r="F74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H74" s="3">
-        <v>19810528</v>
+      <c r="G74" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6945,19 +6942,19 @@
       <c r="F75" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H75" s="3">
-        <v>19810528</v>
+      <c r="G75" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6980,19 +6977,19 @@
       <c r="F76" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="3">
-        <v>19810528</v>
+      <c r="G76" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7015,19 +7012,19 @@
       <c r="F77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="3">
-        <v>19810528</v>
+      <c r="G77" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7050,19 +7047,19 @@
       <c r="F78" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H78" s="3">
-        <v>19810528</v>
+      <c r="G78" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7085,19 +7082,19 @@
       <c r="F79" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="3">
-        <v>19810528</v>
+      <c r="G79" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L79" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7120,19 +7117,19 @@
       <c r="F80" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H80" s="3">
-        <v>19810528</v>
+      <c r="G80" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7155,19 +7152,19 @@
       <c r="F81" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H81" s="3">
-        <v>19810528</v>
+      <c r="G81" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7190,19 +7187,19 @@
       <c r="F82" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H82" s="3">
-        <v>19810528</v>
+      <c r="G82" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7225,19 +7222,19 @@
       <c r="F83" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H83" s="3">
-        <v>19810528</v>
+      <c r="G83" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7260,19 +7257,19 @@
       <c r="F84" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H84" s="3">
-        <v>19810528</v>
+      <c r="G84" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7295,19 +7292,19 @@
       <c r="F85" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H85" s="3">
-        <v>19810528</v>
+      <c r="G85" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7330,19 +7327,19 @@
       <c r="F86" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H86" s="3">
-        <v>19810528</v>
+      <c r="G86" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7365,19 +7362,19 @@
       <c r="F87" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H87" s="3">
-        <v>19810528</v>
+      <c r="G87" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7400,23 +7397,23 @@
       <c r="F88" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="H88" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB88" s="3" t="s">
         <v>154</v>
@@ -7441,23 +7438,23 @@
       <c r="F89" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H89" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>164</v>
@@ -7482,19 +7479,19 @@
       <c r="F90" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H90" s="3">
-        <v>19810528</v>
+      <c r="G90" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L90" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7517,19 +7514,19 @@
       <c r="F91" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H91" s="3">
-        <v>19810528</v>
+      <c r="G91" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L91" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7552,19 +7549,19 @@
       <c r="F92" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H92" s="3">
-        <v>19810528</v>
+      <c r="G92" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7587,19 +7584,19 @@
       <c r="F93" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="3">
-        <v>19810528</v>
+      <c r="G93" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7622,19 +7619,19 @@
       <c r="F94" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H94" s="3">
-        <v>19810528</v>
+      <c r="G94" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7657,19 +7654,19 @@
       <c r="F95" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H95" s="3">
-        <v>19810528</v>
+      <c r="G95" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7692,19 +7689,19 @@
       <c r="F96" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H96" s="3">
-        <v>19810528</v>
+      <c r="G96" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF96" s="3" t="s">
@@ -7730,19 +7727,19 @@
       <c r="F97" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="3">
-        <v>19810528</v>
+      <c r="G97" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7765,19 +7762,19 @@
       <c r="F98" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H98" s="3">
-        <v>19810528</v>
+      <c r="G98" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7800,19 +7797,19 @@
       <c r="F99" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="3">
-        <v>19810528</v>
+      <c r="G99" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7835,23 +7832,23 @@
       <c r="F100" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H100" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>185</v>
@@ -7876,23 +7873,23 @@
       <c r="F101" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="H101" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>184</v>
@@ -7917,19 +7914,19 @@
       <c r="F102" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="3">
-        <v>19810528</v>
+      <c r="G102" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB102" s="3" t="s">
@@ -7955,19 +7952,19 @@
       <c r="F103" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H103" s="3">
-        <v>19810528</v>
+      <c r="G103" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7990,19 +7987,19 @@
       <c r="F104" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H104" s="3">
-        <v>19810528</v>
+      <c r="G104" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB104" s="3" t="s">
@@ -8028,19 +8025,19 @@
       <c r="F105" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H105" s="3">
-        <v>19810528</v>
+      <c r="G105" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB105" s="3" t="s">
@@ -8066,19 +8063,19 @@
       <c r="F106" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H106" s="3">
-        <v>19810528</v>
+      <c r="G106" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB106" s="3" t="s">
@@ -8104,19 +8101,19 @@
       <c r="F107" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H107" s="3">
-        <v>19810528</v>
+      <c r="G107" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L107" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8139,19 +8136,19 @@
       <c r="F108" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H108" s="3">
-        <v>19810528</v>
+      <c r="G108" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8174,19 +8171,19 @@
       <c r="F109" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H109" s="3">
-        <v>19810528</v>
+      <c r="G109" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF109" s="3" t="s">
@@ -8212,19 +8209,19 @@
       <c r="F110" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H110" s="3">
-        <v>19810528</v>
+      <c r="G110" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB110" s="3" t="s">
@@ -8250,19 +8247,19 @@
       <c r="F111" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H111" s="3">
-        <v>19810528</v>
+      <c r="G111" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L111" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8285,19 +8282,19 @@
       <c r="F112" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H112" s="3">
-        <v>19810528</v>
+      <c r="G112" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8320,19 +8317,19 @@
       <c r="F113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H113" s="3">
-        <v>19810528</v>
+      <c r="G113" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8355,19 +8352,19 @@
       <c r="F114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H114" s="3">
-        <v>19810528</v>
+      <c r="G114" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8390,19 +8387,19 @@
       <c r="F115" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H115" s="3">
-        <v>19810528</v>
+      <c r="G115" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8425,19 +8422,19 @@
       <c r="F116" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H116" s="3">
-        <v>19810528</v>
+      <c r="G116" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8460,19 +8457,19 @@
       <c r="F117" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H117" s="3">
-        <v>19810528</v>
+      <c r="G117" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8495,19 +8492,19 @@
       <c r="F118" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H118" s="3">
-        <v>19810528</v>
+      <c r="G118" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8530,19 +8527,19 @@
       <c r="F119" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H119" s="3">
-        <v>19810528</v>
+      <c r="G119" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB119" s="3" t="s">
@@ -8568,19 +8565,19 @@
       <c r="F120" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H120" s="3">
-        <v>19810528</v>
+      <c r="G120" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8603,19 +8600,19 @@
       <c r="F121" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H121" s="3">
-        <v>19810528</v>
+      <c r="G121" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8638,19 +8635,19 @@
       <c r="F122" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H122" s="3">
-        <v>19810528</v>
+      <c r="G122" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8673,19 +8670,19 @@
       <c r="F123" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H123" s="3">
-        <v>19810528</v>
+      <c r="G123" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8696,19 +8693,19 @@
       <c r="B124" s="3">
         <v>25</v>
       </c>
-      <c r="H124" s="3">
-        <v>19810528</v>
+      <c r="G124" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF124" s="3" t="s">
@@ -8725,19 +8722,19 @@
       <c r="C125" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H125" s="3">
-        <v>19810528</v>
+      <c r="G125" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O125" s="3" t="s">
@@ -8766,19 +8763,19 @@
       <c r="F126" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H126" s="3">
-        <v>19810528</v>
+      <c r="G126" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8801,19 +8798,19 @@
       <c r="F127" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H127" s="3">
-        <v>19810528</v>
+      <c r="G127" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB127" s="3" t="s">
@@ -8839,19 +8836,19 @@
       <c r="F128" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H128" s="3">
-        <v>19810528</v>
+      <c r="G128" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L128" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8874,19 +8871,19 @@
       <c r="F129" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H129" s="3">
-        <v>19810528</v>
+      <c r="G129" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8900,19 +8897,19 @@
       <c r="C130" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H130" s="3">
-        <v>19810528</v>
+      <c r="G130" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L130" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF130" s="3" t="s">
@@ -8938,19 +8935,19 @@
       <c r="F131" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H131" s="3">
-        <v>19810528</v>
+      <c r="G131" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB131" s="3" t="s">
@@ -8976,19 +8973,19 @@
       <c r="F132" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H132" s="3">
-        <v>19810528</v>
+      <c r="G132" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L132" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9011,19 +9008,19 @@
       <c r="F133" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H133" s="3">
-        <v>19810528</v>
+      <c r="G133" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L133" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9046,19 +9043,19 @@
       <c r="F134" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H134" s="3">
-        <v>19810528</v>
+      <c r="G134" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF134" s="3" t="s">
@@ -9084,19 +9081,19 @@
       <c r="F135" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H135" s="3">
-        <v>19810528</v>
+      <c r="G135" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L135" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9119,23 +9116,23 @@
       <c r="F136" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="H136" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB136" s="3" t="s">
         <v>185</v>
@@ -9160,19 +9157,19 @@
       <c r="F137" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H137" s="3">
-        <v>19810528</v>
+      <c r="G137" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L137" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9195,19 +9192,19 @@
       <c r="F138" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H138" s="3">
-        <v>19810528</v>
+      <c r="G138" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L138" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9230,19 +9227,19 @@
       <c r="F139" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H139" s="3">
-        <v>19810528</v>
+      <c r="G139" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L139" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9265,19 +9262,19 @@
       <c r="F140" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H140" s="3">
-        <v>19810528</v>
+      <c r="G140" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9300,19 +9297,19 @@
       <c r="F141" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H141" s="3">
-        <v>19810528</v>
+      <c r="G141" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L141" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9335,19 +9332,19 @@
       <c r="F142" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H142" s="3">
-        <v>19810528</v>
+      <c r="G142" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L142" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9370,19 +9367,19 @@
       <c r="F143" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H143" s="3">
-        <v>19810528</v>
+      <c r="G143" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L143" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9405,23 +9402,23 @@
       <c r="F144" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H144" s="3">
-        <v>19810528</v>
+      <c r="G144" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>5</v>
       </c>
@@ -9440,23 +9437,23 @@
       <c r="F145" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H145" s="3">
-        <v>19810528</v>
+      <c r="G145" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>5</v>
       </c>
@@ -9475,23 +9472,23 @@
       <c r="F146" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H146" s="3">
-        <v>19810528</v>
+      <c r="G146" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>5</v>
       </c>
@@ -9510,23 +9507,23 @@
       <c r="F147" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H147" s="3">
-        <v>19810528</v>
+      <c r="G147" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>5</v>
       </c>
@@ -9545,23 +9542,23 @@
       <c r="F148" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H148" s="3">
-        <v>19810528</v>
+      <c r="G148" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>5</v>
       </c>
@@ -9580,23 +9577,23 @@
       <c r="F149" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H149" s="3">
-        <v>19810528</v>
+      <c r="G149" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>5</v>
       </c>
@@ -9615,23 +9612,23 @@
       <c r="F150" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H150" s="3">
-        <v>19810528</v>
+      <c r="G150" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>5</v>
       </c>
@@ -9650,23 +9647,23 @@
       <c r="F151" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H151" s="3">
-        <v>19810528</v>
+      <c r="G151" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>5</v>
       </c>
@@ -9685,23 +9682,23 @@
       <c r="F152" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H152" s="3">
-        <v>19810528</v>
+      <c r="G152" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>5</v>
       </c>
@@ -9720,23 +9717,23 @@
       <c r="F153" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H153" s="3">
-        <v>19810528</v>
+      <c r="G153" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>5</v>
       </c>
@@ -9755,23 +9752,23 @@
       <c r="F154" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H154" s="3">
-        <v>19810528</v>
+      <c r="G154" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>5</v>
       </c>
@@ -9790,23 +9787,23 @@
       <c r="F155" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H155" s="3">
-        <v>19810528</v>
+      <c r="G155" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>5</v>
       </c>
@@ -9825,23 +9822,23 @@
       <c r="F156" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H156" s="3">
-        <v>19810528</v>
+      <c r="G156" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>5</v>
       </c>
@@ -9860,23 +9857,23 @@
       <c r="F157" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H157" s="3">
-        <v>19810528</v>
+      <c r="G157" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>5</v>
       </c>
@@ -9895,23 +9892,23 @@
       <c r="F158" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H158" s="3">
-        <v>19810528</v>
+      <c r="G158" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>5</v>
       </c>
@@ -9930,23 +9927,23 @@
       <c r="F159" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H159" s="3">
-        <v>19810528</v>
+      <c r="G159" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>5</v>
       </c>
@@ -9965,19 +9962,19 @@
       <c r="F160" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H160" s="3">
-        <v>19810528</v>
+      <c r="G160" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L160" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10000,19 +9997,19 @@
       <c r="F161" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H161" s="3">
-        <v>19810528</v>
+      <c r="G161" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L161" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10035,19 +10032,19 @@
       <c r="F162" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H162" s="3">
-        <v>19810528</v>
+      <c r="G162" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L162" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10070,19 +10067,19 @@
       <c r="F163" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H163" s="3">
-        <v>19810528</v>
+      <c r="G163" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L163" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10105,19 +10102,19 @@
       <c r="F164" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H164" s="3">
-        <v>19810528</v>
+      <c r="G164" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L164" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10140,19 +10137,19 @@
       <c r="F165" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H165" s="3">
-        <v>19810528</v>
+      <c r="G165" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L165" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10175,19 +10172,19 @@
       <c r="F166" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H166" s="3">
-        <v>19810528</v>
+      <c r="G166" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L166" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10210,19 +10207,19 @@
       <c r="F167" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H167" s="3">
-        <v>19810528</v>
+      <c r="G167" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L167" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10245,19 +10242,19 @@
       <c r="F168" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H168" s="3">
-        <v>19810528</v>
+      <c r="G168" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L168" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10280,19 +10277,19 @@
       <c r="F169" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H169" s="3">
-        <v>19810528</v>
+      <c r="G169" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L169" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10315,19 +10312,19 @@
       <c r="F170" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H170" s="3">
-        <v>19810528</v>
+      <c r="G170" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L170" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10350,19 +10347,19 @@
       <c r="F171" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H171" s="3">
-        <v>19810528</v>
+      <c r="G171" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L171" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10385,19 +10382,19 @@
       <c r="F172" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H172" s="3">
-        <v>19810528</v>
+      <c r="G172" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L172" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10411,19 +10408,19 @@
       <c r="C173" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H173" s="3">
-        <v>19810528</v>
+      <c r="G173" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L173" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF173" s="3" t="s">
@@ -10449,19 +10446,19 @@
       <c r="F174" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H174" s="3">
-        <v>19810528</v>
+      <c r="G174" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10484,19 +10481,19 @@
       <c r="F175" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H175" s="3">
-        <v>19810528</v>
+      <c r="G175" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L175" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10519,19 +10516,19 @@
       <c r="F176" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H176" s="3">
-        <v>19810528</v>
+      <c r="G176" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L176" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10554,19 +10551,19 @@
       <c r="F177" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="H177" s="3">
-        <v>19810528</v>
+      <c r="G177" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L177" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10589,19 +10586,19 @@
       <c r="F178" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H178" s="3">
-        <v>19810528</v>
+      <c r="G178" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L178" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB178" s="3" t="s">
@@ -10627,19 +10624,19 @@
       <c r="F179" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H179" s="3">
-        <v>19810528</v>
+      <c r="G179" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L179" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10662,19 +10659,19 @@
       <c r="F180" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H180" s="3">
-        <v>19810528</v>
+      <c r="G180" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L180" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10697,19 +10694,19 @@
       <c r="F181" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H181" s="3">
-        <v>19810528</v>
+      <c r="G181" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L181" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10732,19 +10729,19 @@
       <c r="F182" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H182" s="3">
-        <v>19810528</v>
+      <c r="G182" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB182" s="3" t="s">
@@ -10770,19 +10767,19 @@
       <c r="F183" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H183" s="3">
-        <v>19810528</v>
+      <c r="G183" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L183" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10799,23 +10796,23 @@
       <c r="D184" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="H184" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="O184" s="3" t="s">
         <v>296</v>
@@ -10843,19 +10840,19 @@
       <c r="F185" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="H185" s="3">
-        <v>19810528</v>
+      <c r="G185" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L185" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10878,19 +10875,19 @@
       <c r="F186" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="H186" s="3">
-        <v>19810528</v>
+      <c r="G186" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L186" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10913,19 +10910,19 @@
       <c r="F187" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H187" s="3">
-        <v>19810528</v>
+      <c r="G187" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10948,19 +10945,19 @@
       <c r="F188" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H188" s="3">
-        <v>19810528</v>
+      <c r="G188" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L188" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10983,19 +10980,19 @@
       <c r="F189" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H189" s="3">
-        <v>19810528</v>
+      <c r="G189" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L189" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11018,23 +11015,23 @@
       <c r="F190" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G190" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="H190" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J190" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="AB190" s="3" t="s">
         <v>305</v>
@@ -11059,19 +11056,19 @@
       <c r="F191" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H191" s="3">
-        <v>19810528</v>
+      <c r="G191" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11094,19 +11091,19 @@
       <c r="F192" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="H192" s="3">
-        <v>19810528</v>
+      <c r="G192" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11129,19 +11126,19 @@
       <c r="F193" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="H193" s="3">
-        <v>19810528</v>
+      <c r="G193" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L193" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11164,19 +11161,19 @@
       <c r="F194" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H194" s="3">
-        <v>19810528</v>
+      <c r="G194" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L194" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11199,19 +11196,19 @@
       <c r="F195" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H195" s="3">
-        <v>19810528</v>
+      <c r="G195" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11234,19 +11231,19 @@
       <c r="F196" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H196" s="3">
-        <v>19810528</v>
+      <c r="G196" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L196" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB196" s="3" t="s">
@@ -11272,19 +11269,19 @@
       <c r="F197" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H197" s="3">
-        <v>19810528</v>
+      <c r="G197" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L197" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11307,19 +11304,19 @@
       <c r="F198" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H198" s="3">
-        <v>19810528</v>
+      <c r="G198" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11342,19 +11339,19 @@
       <c r="F199" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H199" s="3">
-        <v>19810528</v>
+      <c r="G199" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L199" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11377,19 +11374,19 @@
       <c r="F200" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="H200" s="3">
-        <v>19810528</v>
+      <c r="G200" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L200" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11412,19 +11409,19 @@
       <c r="F201" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H201" s="3">
-        <v>19810528</v>
+      <c r="G201" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L201" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11447,19 +11444,19 @@
       <c r="F202" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H202" s="3">
-        <v>19810528</v>
+      <c r="G202" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L202" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11482,19 +11479,19 @@
       <c r="F203" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H203" s="3">
-        <v>19810528</v>
+      <c r="G203" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L203" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11517,19 +11514,19 @@
       <c r="F204" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H204" s="3">
-        <v>19810528</v>
+      <c r="G204" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L204" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11552,19 +11549,19 @@
       <c r="F205" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="H205" s="3">
-        <v>19810528</v>
+      <c r="G205" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L205" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF205" s="3" t="s">
@@ -11587,19 +11584,19 @@
       <c r="F206" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H206" s="3">
-        <v>19810528</v>
+      <c r="G206" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L206" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11616,19 +11613,19 @@
       <c r="F207" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H207" s="3">
-        <v>19810528</v>
+      <c r="G207" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L207" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11645,19 +11642,19 @@
       <c r="F208" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H208" s="3">
-        <v>19810528</v>
+      <c r="G208" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L208" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11671,22 +11668,22 @@
       <c r="E209" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F209" s="10" t="s">
+      <c r="F209" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H209" s="3">
-        <v>19810528</v>
+      <c r="G209" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L209" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11703,19 +11700,19 @@
       <c r="F210" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H210" s="3">
-        <v>19810528</v>
+      <c r="G210" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L210" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11732,19 +11729,19 @@
       <c r="F211" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H211" s="3">
-        <v>19810528</v>
+      <c r="G211" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>334</v>
+        <v>19</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L211" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11755,19 +11752,19 @@
       <c r="D212" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H212" s="3">
-        <v>19810528</v>
+      <c r="G212" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L212" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF212" s="3" t="s">
@@ -11787,19 +11784,19 @@
       <c r="F213" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H213" s="3">
-        <v>19810528</v>
+      <c r="G213" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L213" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AB213" s="3" t="s">
@@ -11813,19 +11810,19 @@
       <c r="D214" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H214" s="3">
-        <v>19810528</v>
+      <c r="G214" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L214" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AF214" s="3" t="s">
@@ -11845,19 +11842,19 @@
       <c r="F215" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H215" s="3">
-        <v>19810528</v>
+      <c r="G215" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L215" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11874,19 +11871,19 @@
       <c r="F216" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="H216" s="3">
-        <v>19810528</v>
+      <c r="G216" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L216" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P216" s="3" t="s">
@@ -11915,19 +11912,19 @@
       <c r="F217" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H217" s="3">
-        <v>19810528</v>
+      <c r="G217" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L217" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P217" s="3" t="s">
@@ -11953,19 +11950,19 @@
       <c r="F218" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H218" s="3">
-        <v>19810528</v>
+      <c r="G218" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L218" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P218" s="3" t="s">
@@ -11991,19 +11988,19 @@
       <c r="F219" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H219" s="3">
-        <v>19810528</v>
+      <c r="G219" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L219" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P219" s="3" t="s">
@@ -12029,19 +12026,19 @@
       <c r="F220" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H220" s="3">
-        <v>19810528</v>
+      <c r="G220" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L220" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P220" s="3" t="s">
@@ -12061,19 +12058,19 @@
       <c r="C221" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="H221" s="3">
-        <v>19810528</v>
+      <c r="G221" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P221" s="3" t="s">
@@ -12102,23 +12099,23 @@
       <c r="F222" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="G222" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="H222" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="J222" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K222" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L222" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="P222" s="3" t="s">
         <v>346</v>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8F3F6-CD30-A24A-81DC-7539E11746DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57300D98-4BCD-304A-AE2F-9819F5A3ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15440" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1348,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1358,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">locationRemarks
+          <t xml:space="preserve">assTaxa
 </t>
         </r>
         <r>
@@ -1400,7 +1400,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
 </t>
         </r>
         <r>
@@ -1421,22 +1421,69 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Example: poly 20
-</t>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
       <text>
         <r>
           <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vTaxonRank (REQUIRED)
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -1447,58 +1494,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">Example: </t>
         </r>
         <r>
@@ -1508,22 +1503,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
       <text>
         <r>
           <rPr>
@@ -1533,20 +1517,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>vElev</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">locationRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1557,6 +1533,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1582,7 +1559,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
+          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
 </t>
         </r>
         <r>
@@ -1603,30 +1580,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Example</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: 10 </t>
+          <t xml:space="preserve">Example: poly 20
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vLat 
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vTaxonRank (REQUIRED)
 </t>
         </r>
         <r>
@@ -1634,7 +1603,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1645,7 +1614,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1656,26 +1625,26 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1686,43 +1655,73 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>49 39 12</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vElev</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -1730,7 +1729,26 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1741,89 +1759,41 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 10 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vUTM
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vLat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1834,26 +1804,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1864,33 +1815,73 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>10U 45689 55678</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>49 39 12</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vCoordUncertainty
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RECOMMENDED
 </t>
         </r>
         <r>
@@ -1898,7 +1889,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1909,26 +1900,45 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1939,23 +1949,23 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30 </t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
       <text>
         <r>
           <rPr>
@@ -1965,7 +1975,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">assTaxa
+          <t xml:space="preserve">vUTM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -1976,6 +1996,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -1987,47 +2026,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">Example: </t>
         </r>
         <r>
@@ -2037,24 +2035,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Isoetes echinospora</t>
+          <t>10U 45689 55678</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vCoordUncertainty
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2080,7 +2080,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
 </t>
         </r>
         <r>
@@ -2110,7 +2110,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"HJC-2863"</t>
+          <t xml:space="preserve">30 </t>
         </r>
       </text>
     </comment>
@@ -2549,15 +2549,9 @@
     <t>beach</t>
   </si>
   <si>
-    <t>log dump beach with navy channel, North Pender Island</t>
-  </si>
-  <si>
     <t>North Pender Island</t>
   </si>
   <si>
-    <t>Prevost Island, at dock</t>
-  </si>
-  <si>
     <t>at dock</t>
   </si>
   <si>
@@ -3542,9 +3536,6 @@
     <t>Cytisus scoparius</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t xml:space="preserve">single at sea edge </t>
   </si>
   <si>
@@ -3561,6 +3552,15 @@
   </si>
   <si>
     <t xml:space="preserve">Myriophyllum cf. sp. </t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>Prevost Island; at dock</t>
+  </si>
+  <si>
+    <t>North Pender Island; log dump beach with navy channel</t>
   </si>
 </sst>
 </file>
@@ -4061,10 +4061,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M216" sqref="M216"/>
+      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4084,15 +4084,15 @@
     <col min="13" max="13" width="20.33203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="22.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="29.5" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="29.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="3" customWidth="1"/>
     <col min="25" max="25" width="7.5" style="3" customWidth="1"/>
     <col min="26" max="26" width="11.33203125" style="3" customWidth="1"/>
     <col min="27" max="27" width="11.1640625" style="3" customWidth="1"/>
@@ -4106,40 +4106,40 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -4150,29 +4150,29 @@
       <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>114</v>
@@ -4202,7 +4202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4225,16 +4225,16 @@
         <v>19810528</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
@@ -4242,9 +4242,9 @@
       <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="P2"/>
       <c r="W2"/>
+      <c r="X2"/>
       <c r="AF2"/>
     </row>
     <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4255,22 +4255,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3">
         <v>19810528</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -4281,11 +4281,11 @@
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="R3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3"/>
+      <c r="X3"/>
       <c r="AF3"/>
     </row>
     <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4296,22 +4296,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3">
         <v>19810528</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -4322,8 +4322,8 @@
       <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
+      <c r="R4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4334,22 +4334,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <v>19810528</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -4360,8 +4360,8 @@
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
+      <c r="R5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -4373,22 +4373,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3">
         <v>19810528</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -4399,8 +4399,8 @@
       <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>27</v>
+      <c r="R6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -4412,22 +4412,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>19810528</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -4438,8 +4438,8 @@
       <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>27</v>
+      <c r="R7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4450,22 +4450,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
         <v>19810528</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -4476,8 +4476,8 @@
       <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>27</v>
+      <c r="R8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF8"/>
     </row>
@@ -4489,22 +4489,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3">
         <v>19810528</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -4515,8 +4515,8 @@
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
+      <c r="R9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF9"/>
     </row>
@@ -4528,22 +4528,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3">
         <v>19810528</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -4554,8 +4554,8 @@
       <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>27</v>
+      <c r="R10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -4567,22 +4567,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3">
         <v>19810528</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -4594,8 +4594,8 @@
         <v>22</v>
       </c>
       <c r="O11"/>
-      <c r="P11" s="3" t="s">
-        <v>27</v>
+      <c r="R11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -4607,22 +4607,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3">
         <v>19810528</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -4633,8 +4633,8 @@
       <c r="K12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>27</v>
+      <c r="R12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF12"/>
     </row>
@@ -4646,22 +4646,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3">
         <v>19810528</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -4674,8 +4674,8 @@
       </c>
       <c r="L13"/>
       <c r="O13"/>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
+      <c r="R13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
@@ -4689,22 +4689,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3">
         <v>19810528</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -4716,8 +4716,8 @@
         <v>22</v>
       </c>
       <c r="O14"/>
-      <c r="P14" s="3" t="s">
-        <v>27</v>
+      <c r="R14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF14"/>
     </row>
@@ -4729,22 +4729,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3">
         <v>19810528</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -4756,8 +4756,8 @@
         <v>22</v>
       </c>
       <c r="O15"/>
-      <c r="P15" s="3" t="s">
-        <v>27</v>
+      <c r="R15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF15"/>
     </row>
@@ -4769,22 +4769,22 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3">
         <v>19810528</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -4796,8 +4796,8 @@
         <v>22</v>
       </c>
       <c r="O16"/>
-      <c r="P16" s="3" t="s">
-        <v>27</v>
+      <c r="R16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF16"/>
     </row>
@@ -4809,22 +4809,22 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3">
         <v>19810528</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -4836,8 +4836,8 @@
         <v>22</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="3" t="s">
-        <v>27</v>
+      <c r="R17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF17"/>
     </row>
@@ -4849,22 +4849,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3">
         <v>19810528</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -4876,8 +4876,8 @@
         <v>22</v>
       </c>
       <c r="O18"/>
-      <c r="P18" s="3" t="s">
-        <v>27</v>
+      <c r="R18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF18"/>
     </row>
@@ -4889,22 +4889,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3">
         <v>19810528</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -4916,8 +4916,8 @@
         <v>22</v>
       </c>
       <c r="O19"/>
-      <c r="P19" s="3" t="s">
-        <v>27</v>
+      <c r="R19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF19"/>
     </row>
@@ -4929,22 +4929,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3">
         <v>19810528</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -4956,8 +4956,8 @@
         <v>22</v>
       </c>
       <c r="O20"/>
-      <c r="P20" s="3" t="s">
-        <v>27</v>
+      <c r="R20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF20"/>
     </row>
@@ -4969,22 +4969,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3">
         <v>19810528</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -4996,8 +4996,8 @@
         <v>22</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="s">
-        <v>27</v>
+      <c r="R21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -5009,22 +5009,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="3">
         <v>19810528</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -5036,8 +5036,8 @@
         <v>22</v>
       </c>
       <c r="O22"/>
-      <c r="P22" s="3" t="s">
-        <v>27</v>
+      <c r="R22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF22"/>
     </row>
@@ -5049,22 +5049,22 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3">
         <v>19810528</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -5076,8 +5076,8 @@
         <v>22</v>
       </c>
       <c r="O23"/>
-      <c r="P23" s="3" t="s">
-        <v>27</v>
+      <c r="R23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AF23"/>
     </row>
@@ -5089,16 +5089,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="3">
         <v>19810528</v>
@@ -5126,16 +5126,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3">
         <v>19810528</v>
@@ -5163,16 +5163,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3">
         <v>19810528</v>
@@ -5200,16 +5200,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="3">
         <v>19810528</v>
@@ -5226,7 +5226,7 @@
       <c r="K27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P27"/>
+      <c r="R27"/>
       <c r="AF27"/>
     </row>
     <row r="28" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5237,16 +5237,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="3">
         <v>19810528</v>
@@ -5273,16 +5273,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3">
         <v>19810528</v>
@@ -5309,16 +5309,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3">
         <v>19810528</v>
@@ -5345,16 +5345,16 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3">
         <v>19810528</v>
@@ -5373,10 +5373,10 @@
       </c>
       <c r="L31"/>
       <c r="AB31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5387,16 +5387,16 @@
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="3">
         <v>19810528</v>
@@ -5422,16 +5422,16 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" s="3">
         <v>19810528</v>
@@ -5457,16 +5457,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3">
         <v>19810528</v>
@@ -5492,16 +5492,16 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" s="3">
         <v>19810528</v>
@@ -5527,16 +5527,16 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36" s="3">
         <v>19810528</v>
@@ -5585,16 +5585,16 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="3">
         <v>19810528</v>
@@ -5620,16 +5620,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" s="3">
         <v>19810528</v>
@@ -5655,16 +5655,16 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" s="3">
         <v>19810528</v>
@@ -5690,16 +5690,16 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" s="3">
         <v>19810528</v>
@@ -5725,16 +5725,16 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3">
         <v>19810528</v>
@@ -5760,16 +5760,16 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="3">
         <v>19810528</v>
@@ -5795,16 +5795,16 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" s="3">
         <v>19810528</v>
@@ -5830,16 +5830,16 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G45" s="3">
         <v>19810528</v>
@@ -5865,16 +5865,16 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" s="3">
         <v>19810528</v>
@@ -5900,16 +5900,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="3">
         <v>19810528</v>
@@ -5927,13 +5927,13 @@
         <v>22</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5944,16 +5944,16 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G48" s="3">
         <v>19810528</v>
@@ -5979,16 +5979,16 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" s="3">
         <v>19810528</v>
@@ -6014,16 +6014,16 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G50" s="3">
         <v>19810528</v>
@@ -6041,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6052,16 +6052,16 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G51" s="3">
         <v>19810528</v>
@@ -6087,16 +6087,16 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G52" s="3">
         <v>19810528</v>
@@ -6122,16 +6122,16 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G53" s="3">
         <v>19810528</v>
@@ -6157,16 +6157,16 @@
         <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G54" s="3">
         <v>19810528</v>
@@ -6192,16 +6192,16 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" s="3">
         <v>19810528</v>
@@ -6227,16 +6227,16 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" s="3">
         <v>19810528</v>
@@ -6254,13 +6254,13 @@
         <v>22</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AB56" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6271,16 +6271,16 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" s="3">
         <v>19810528</v>
@@ -6306,16 +6306,16 @@
         <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G58" s="3">
         <v>19810528</v>
@@ -6341,16 +6341,16 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G59" s="3">
         <v>19810528</v>
@@ -6376,16 +6376,16 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G60" s="3">
         <v>19810528</v>
@@ -6411,16 +6411,16 @@
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G61" s="3">
         <v>19810528</v>
@@ -6446,37 +6446,37 @@
         <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF62" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6487,16 +6487,16 @@
         <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G63" s="3">
         <v>19810528</v>
@@ -6514,10 +6514,10 @@
         <v>22</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6528,16 +6528,16 @@
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" s="3">
         <v>19810528</v>
@@ -6563,16 +6563,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G65" s="3">
         <v>19810528</v>
@@ -6598,16 +6598,16 @@
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" s="3">
         <v>19810528</v>
@@ -6625,13 +6625,13 @@
         <v>22</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6642,16 +6642,16 @@
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" s="3">
         <v>19810528</v>
@@ -6677,40 +6677,40 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="AB68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB68" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AF68" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6721,16 +6721,16 @@
         <v>6</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G69" s="3">
         <v>19810528</v>
@@ -6756,16 +6756,16 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G70" s="3">
         <v>19810528</v>
@@ -6791,16 +6791,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" s="3">
         <v>19810528</v>
@@ -6826,16 +6826,16 @@
         <v>9</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G72" s="3">
         <v>19810528</v>
@@ -6861,16 +6861,16 @@
         <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G73" s="3">
         <v>19810528</v>
@@ -6896,16 +6896,16 @@
         <v>11</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G74" s="3">
         <v>19810528</v>
@@ -6931,16 +6931,16 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" s="3">
         <v>19810528</v>
@@ -6966,16 +6966,16 @@
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G76" s="3">
         <v>19810528</v>
@@ -7001,16 +7001,16 @@
         <v>14</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G77" s="3">
         <v>19810528</v>
@@ -7036,16 +7036,16 @@
         <v>15</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G78" s="3">
         <v>19810528</v>
@@ -7071,16 +7071,16 @@
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G79" s="3">
         <v>19810528</v>
@@ -7106,16 +7106,16 @@
         <v>17</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G80" s="3">
         <v>19810528</v>
@@ -7141,16 +7141,16 @@
         <v>18</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G81" s="3">
         <v>19810528</v>
@@ -7176,16 +7176,16 @@
         <v>19</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G82" s="3">
         <v>19810528</v>
@@ -7211,16 +7211,16 @@
         <v>20</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G83" s="3">
         <v>19810528</v>
@@ -7246,16 +7246,16 @@
         <v>21</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G84" s="3">
         <v>19810528</v>
@@ -7281,16 +7281,16 @@
         <v>22</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G85" s="3">
         <v>19810528</v>
@@ -7316,16 +7316,16 @@
         <v>23</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G86" s="3">
         <v>19810528</v>
@@ -7351,16 +7351,16 @@
         <v>24</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G87" s="3">
         <v>19810528</v>
@@ -7378,7 +7378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -7386,16 +7386,16 @@
         <v>25</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G88" s="3">
         <v>19810528</v>
@@ -7413,13 +7413,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -7427,37 +7427,37 @@
         <v>26</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB89" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G89" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB89" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7468,16 +7468,16 @@
         <v>27</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G90" s="3">
         <v>19810528</v>
@@ -7503,16 +7503,16 @@
         <v>28</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G91" s="3">
         <v>19810528</v>
@@ -7538,16 +7538,16 @@
         <v>29</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G92" s="3">
         <v>19810528</v>
@@ -7573,16 +7573,16 @@
         <v>30</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" s="3">
         <v>19810528</v>
@@ -7608,16 +7608,16 @@
         <v>31</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G94" s="3">
         <v>19810528</v>
@@ -7643,16 +7643,16 @@
         <v>32</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G95" s="3">
         <v>19810528</v>
@@ -7678,16 +7678,16 @@
         <v>33</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G96" s="3">
         <v>19810528</v>
@@ -7705,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="AF96" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7716,16 +7716,16 @@
         <v>34</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G97" s="3">
         <v>19810528</v>
@@ -7751,16 +7751,16 @@
         <v>35</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G98" s="3">
         <v>19810528</v>
@@ -7786,16 +7786,16 @@
         <v>36</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G99" s="3">
         <v>19810528</v>
@@ -7821,16 +7821,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G100" s="3">
         <v>19810528</v>
@@ -7848,10 +7848,10 @@
         <v>22</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB100" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -7862,37 +7862,37 @@
         <v>2</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB101" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G101" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7903,34 +7903,34 @@
         <v>3</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G102" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G102" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB102" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7941,16 +7941,16 @@
         <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G103" s="3">
         <v>19810528</v>
@@ -7976,34 +7976,34 @@
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB104" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G104" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB104" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -8014,16 +8014,16 @@
         <v>6</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G105" s="3">
         <v>19810528</v>
@@ -8041,7 +8041,7 @@
         <v>22</v>
       </c>
       <c r="AB105" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -8052,34 +8052,34 @@
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G106" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB106" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB106" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8090,16 +8090,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G107" s="3">
         <v>19810528</v>
@@ -8125,16 +8125,16 @@
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G108" s="3">
         <v>19810528</v>
@@ -8160,16 +8160,16 @@
         <v>10</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G109" s="3">
         <v>19810528</v>
@@ -8187,7 +8187,7 @@
         <v>22</v>
       </c>
       <c r="AF109" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8198,16 +8198,16 @@
         <v>11</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G110" s="3">
         <v>19810528</v>
@@ -8225,7 +8225,7 @@
         <v>22</v>
       </c>
       <c r="AB110" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8236,16 +8236,16 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G111" s="3">
         <v>19810528</v>
@@ -8271,16 +8271,16 @@
         <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G112" s="3">
         <v>19810528</v>
@@ -8306,16 +8306,16 @@
         <v>14</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G113" s="3">
         <v>19810528</v>
@@ -8341,16 +8341,16 @@
         <v>15</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G114" s="3">
         <v>19810528</v>
@@ -8376,16 +8376,16 @@
         <v>16</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G115" s="3">
         <v>19810528</v>
@@ -8411,16 +8411,16 @@
         <v>17</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G116" s="3">
         <v>19810528</v>
@@ -8446,16 +8446,16 @@
         <v>18</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G117" s="3">
         <v>19810528</v>
@@ -8481,16 +8481,16 @@
         <v>19</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G118" s="3">
         <v>19810528</v>
@@ -8516,16 +8516,16 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G119" s="3">
         <v>19810528</v>
@@ -8543,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="AB119" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8554,16 +8554,16 @@
         <v>21</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G120" s="3">
         <v>19810528</v>
@@ -8589,16 +8589,16 @@
         <v>22</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G121" s="3">
         <v>19810528</v>
@@ -8624,16 +8624,16 @@
         <v>23</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G122" s="3">
         <v>19810528</v>
@@ -8659,16 +8659,16 @@
         <v>24</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G123" s="3">
         <v>19810528</v>
@@ -8709,7 +8709,7 @@
         <v>22</v>
       </c>
       <c r="AF124" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8720,28 +8720,28 @@
         <v>26</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G125" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF125" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="G125" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF125" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8752,16 +8752,16 @@
         <v>27</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G126" s="3">
         <v>19810528</v>
@@ -8787,16 +8787,16 @@
         <v>28</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G127" s="3">
         <v>19810528</v>
@@ -8814,7 +8814,7 @@
         <v>22</v>
       </c>
       <c r="AB127" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8825,16 +8825,16 @@
         <v>29</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G128" s="3">
         <v>19810528</v>
@@ -8860,16 +8860,16 @@
         <v>30</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G129" s="3">
         <v>19810528</v>
@@ -8895,7 +8895,7 @@
         <v>31</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G130" s="3">
         <v>19810528</v>
@@ -8913,7 +8913,7 @@
         <v>22</v>
       </c>
       <c r="AF130" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -8924,16 +8924,16 @@
         <v>32</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G131" s="3">
         <v>19810528</v>
@@ -8951,7 +8951,7 @@
         <v>22</v>
       </c>
       <c r="AB131" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8962,16 +8962,16 @@
         <v>33</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G132" s="3">
         <v>19810528</v>
@@ -8997,16 +8997,16 @@
         <v>34</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G133" s="3">
         <v>19810528</v>
@@ -9032,34 +9032,34 @@
         <v>35</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G134" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF134" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G134" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF134" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -9070,16 +9070,16 @@
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G135" s="3">
         <v>19810528</v>
@@ -9105,16 +9105,16 @@
         <v>2</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G136" s="3">
         <v>19810528</v>
@@ -9132,10 +9132,10 @@
         <v>22</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AB136" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -9146,16 +9146,16 @@
         <v>3</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G137" s="3">
         <v>19810528</v>
@@ -9181,16 +9181,16 @@
         <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G138" s="3">
         <v>19810528</v>
@@ -9216,16 +9216,16 @@
         <v>5</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G139" s="3">
         <v>19810528</v>
@@ -9251,16 +9251,16 @@
         <v>6</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G140" s="3">
         <v>19810528</v>
@@ -9286,16 +9286,16 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G141" s="3">
         <v>19810528</v>
@@ -9321,16 +9321,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G142" s="3">
         <v>19810528</v>
@@ -9356,16 +9356,16 @@
         <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G143" s="3">
         <v>19810528</v>
@@ -9391,16 +9391,16 @@
         <v>10</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G144" s="3">
         <v>19810528</v>
@@ -9426,16 +9426,16 @@
         <v>11</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G145" s="3">
         <v>19810528</v>
@@ -9461,16 +9461,16 @@
         <v>12</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G146" s="3">
         <v>19810528</v>
@@ -9496,16 +9496,16 @@
         <v>13</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G147" s="3">
         <v>19810528</v>
@@ -9531,16 +9531,16 @@
         <v>14</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G148" s="3">
         <v>19810528</v>
@@ -9566,16 +9566,16 @@
         <v>15</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G149" s="3">
         <v>19810528</v>
@@ -9601,16 +9601,16 @@
         <v>16</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G150" s="3">
         <v>19810528</v>
@@ -9636,16 +9636,16 @@
         <v>17</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G151" s="3">
         <v>19810528</v>
@@ -9671,16 +9671,16 @@
         <v>18</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G152" s="3">
         <v>19810528</v>
@@ -9706,16 +9706,16 @@
         <v>19</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G153" s="3">
         <v>19810528</v>
@@ -9741,16 +9741,16 @@
         <v>20</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G154" s="3">
         <v>19810528</v>
@@ -9776,16 +9776,16 @@
         <v>21</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G155" s="3">
         <v>19810528</v>
@@ -9811,16 +9811,16 @@
         <v>22</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G156" s="3">
         <v>19810528</v>
@@ -9846,16 +9846,16 @@
         <v>23</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G157" s="3">
         <v>19810528</v>
@@ -9881,16 +9881,16 @@
         <v>24</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G158" s="3">
         <v>19810528</v>
@@ -9916,16 +9916,16 @@
         <v>25</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G159" s="3">
         <v>19810528</v>
@@ -9951,16 +9951,16 @@
         <v>26</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G160" s="3">
         <v>19810528</v>
@@ -9986,16 +9986,16 @@
         <v>27</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G161" s="3">
         <v>19810528</v>
@@ -10021,16 +10021,16 @@
         <v>28</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G162" s="3">
         <v>19810528</v>
@@ -10056,16 +10056,16 @@
         <v>29</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G163" s="3">
         <v>19810528</v>
@@ -10091,16 +10091,16 @@
         <v>30</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G164" s="3">
         <v>19810528</v>
@@ -10126,16 +10126,16 @@
         <v>31</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G165" s="3">
         <v>19810528</v>
@@ -10161,16 +10161,16 @@
         <v>32</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G166" s="3">
         <v>19810528</v>
@@ -10196,16 +10196,16 @@
         <v>33</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G167" s="3">
         <v>19810528</v>
@@ -10231,16 +10231,16 @@
         <v>34</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G168" s="3">
         <v>19810528</v>
@@ -10266,16 +10266,16 @@
         <v>35</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G169" s="3">
         <v>19810528</v>
@@ -10301,16 +10301,16 @@
         <v>36</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G170" s="3">
         <v>19810528</v>
@@ -10336,16 +10336,16 @@
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G171" s="3">
         <v>19810528</v>
@@ -10371,16 +10371,16 @@
         <v>2</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G172" s="3">
         <v>19810528</v>
@@ -10406,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G173" s="3">
         <v>19810528</v>
@@ -10424,7 +10424,7 @@
         <v>22</v>
       </c>
       <c r="AF173" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -10435,16 +10435,16 @@
         <v>4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G174" s="3">
         <v>19810528</v>
@@ -10470,16 +10470,16 @@
         <v>5</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G175" s="3">
         <v>19810528</v>
@@ -10505,16 +10505,16 @@
         <v>6</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G176" s="3">
         <v>19810528</v>
@@ -10540,16 +10540,16 @@
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G177" s="3">
         <v>19810528</v>
@@ -10575,34 +10575,34 @@
         <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G178" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB178" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G178" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB178" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -10613,16 +10613,16 @@
         <v>9</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G179" s="3">
         <v>19810528</v>
@@ -10648,16 +10648,16 @@
         <v>10</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G180" s="3">
         <v>19810528</v>
@@ -10683,16 +10683,16 @@
         <v>11</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G181" s="3">
         <v>19810528</v>
@@ -10718,16 +10718,16 @@
         <v>12</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G182" s="3">
         <v>19810528</v>
@@ -10745,7 +10745,7 @@
         <v>22</v>
       </c>
       <c r="AB182" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -10756,16 +10756,16 @@
         <v>13</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G183" s="3">
         <v>19810528</v>
@@ -10791,34 +10791,34 @@
         <v>14</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G184" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="R184" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G184" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="O184" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P184" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -10829,16 +10829,16 @@
         <v>15</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G185" s="3">
         <v>19810528</v>
@@ -10864,16 +10864,16 @@
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G186" s="3">
         <v>19810528</v>
@@ -10899,16 +10899,16 @@
         <v>17</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G187" s="3">
         <v>19810528</v>
@@ -10934,16 +10934,16 @@
         <v>18</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G188" s="3">
         <v>19810528</v>
@@ -10969,16 +10969,16 @@
         <v>19</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G189" s="3">
         <v>19810528</v>
@@ -10996,7 +10996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>6</v>
       </c>
@@ -11004,16 +11004,16 @@
         <v>20</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G190" s="3">
         <v>19810528</v>
@@ -11031,10 +11031,10 @@
         <v>22</v>
       </c>
       <c r="L190" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB190" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="AB190" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -11045,16 +11045,16 @@
         <v>21</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G191" s="3">
         <v>19810528</v>
@@ -11080,16 +11080,16 @@
         <v>22</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G192" s="3">
         <v>19810528</v>
@@ -11115,16 +11115,16 @@
         <v>23</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G193" s="3">
         <v>19810528</v>
@@ -11150,16 +11150,16 @@
         <v>24</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G194" s="3">
         <v>19810528</v>
@@ -11185,16 +11185,16 @@
         <v>25</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G195" s="3">
         <v>19810528</v>
@@ -11220,34 +11220,34 @@
         <v>26</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G196" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB196" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G196" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J196" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K196" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB196" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -11258,16 +11258,16 @@
         <v>27</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G197" s="3">
         <v>19810528</v>
@@ -11293,16 +11293,16 @@
         <v>28</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G198" s="3">
         <v>19810528</v>
@@ -11328,16 +11328,16 @@
         <v>29</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G199" s="3">
         <v>19810528</v>
@@ -11363,16 +11363,16 @@
         <v>30</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G200" s="3">
         <v>19810528</v>
@@ -11398,16 +11398,16 @@
         <v>31</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G201" s="3">
         <v>19810528</v>
@@ -11433,16 +11433,16 @@
         <v>32</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G202" s="3">
         <v>19810528</v>
@@ -11468,16 +11468,16 @@
         <v>33</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G203" s="3">
         <v>19810528</v>
@@ -11503,16 +11503,16 @@
         <v>34</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G204" s="3">
         <v>19810528</v>
@@ -11538,16 +11538,16 @@
         <v>35</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G205" s="3">
         <v>19810528</v>
@@ -11565,472 +11565,559 @@
         <v>22</v>
       </c>
       <c r="AF205" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>7</v>
       </c>
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
       <c r="C206" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G206" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>7</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206" s="3" t="s">
+      <c r="E207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G207" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>7</v>
+      </c>
+      <c r="B208" s="3">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G206" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K206" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C207" s="3" t="s">
+      <c r="D208" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G208" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>7</v>
+      </c>
+      <c r="B209" s="3">
+        <v>4</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E207" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F207" s="3" t="s">
+      <c r="E209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G207" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J207" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K207" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C208" s="3" t="s">
+      <c r="G209" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>7</v>
+      </c>
+      <c r="B210" s="3">
+        <v>5</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D210" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E208" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F208" s="3" t="s">
+      <c r="E210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G208" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K208" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C209" s="3" t="s">
+      <c r="G210" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>7</v>
+      </c>
+      <c r="B211" s="3">
+        <v>6</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G209" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K209" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C210" s="3" t="s">
+      <c r="E211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D210" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G210" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H210" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C211" s="3" t="s">
+      <c r="G211" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H211" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F211" s="3" t="s">
+      <c r="I211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>7</v>
+      </c>
+      <c r="B212" s="3">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G212" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H212" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G211" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H211" s="3" t="s">
+      <c r="I212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF212" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I211" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C212" s="3" t="s">
+    </row>
+    <row r="213" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>7</v>
+      </c>
+      <c r="B213" s="3">
+        <v>8</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="G213" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB213" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>7</v>
+      </c>
+      <c r="B214" s="3">
+        <v>9</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G214" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF214" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="215" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>7</v>
+      </c>
+      <c r="B215" s="3">
+        <v>10</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G215" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>7</v>
+      </c>
+      <c r="B216" s="3">
+        <v>11</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G216" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R216" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G212" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF212" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="213" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C213" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G213" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K213" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB213" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="214" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C214" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G214" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF214" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="215" spans="3:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="C215" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G215" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C216" s="3" t="s">
+      <c r="Z216" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA216" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="AB216" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="217" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>7</v>
+      </c>
+      <c r="B217" s="3">
+        <v>12</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G217" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R217" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z217" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA217" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E216" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F216" s="3" t="s">
+    </row>
+    <row r="218" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>7</v>
+      </c>
+      <c r="B218" s="3">
+        <v>13</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G218" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R218" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z218" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA218" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G216" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J216" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K216" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P216" s="3" t="s">
+    </row>
+    <row r="219" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>7</v>
+      </c>
+      <c r="B219" s="3">
+        <v>14</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G219" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R219" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z219" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="Z216" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA216" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB216" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="217" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C217" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G217" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P217" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z217" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA217" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="218" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C218" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G218" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J218" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K218" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P218" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z218" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA218" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="219" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C219" s="3" t="s">
+      <c r="AA219" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>7</v>
+      </c>
+      <c r="B220" s="3">
+        <v>15</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E219" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F219" s="3" t="s">
+      <c r="E220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G219" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J219" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K219" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P219" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z219" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA219" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="220" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C220" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="G220" s="3">
         <v>19810528</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>19</v>
@@ -12041,84 +12128,96 @@
       <c r="K220" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P220" s="3" t="s">
-        <v>346</v>
+      <c r="R220" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="Z220" s="3">
         <v>1</v>
       </c>
       <c r="AA220" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB220" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>7</v>
+      </c>
+      <c r="B221" s="3">
+        <v>16</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G221" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB221" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC221" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF221" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AB220" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="221" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C221" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G221" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J221" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K221" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P221" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB221" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC221" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF221" s="3" t="s">
+    </row>
+    <row r="222" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>7</v>
+      </c>
+      <c r="B222" s="3">
+        <v>17</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G222" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="222" spans="3:32" ht="68" x14ac:dyDescent="0.2">
-      <c r="C222" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G222" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J222" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K222" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L222" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P222" s="3" t="s">
-        <v>346</v>
+      <c r="R222" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57300D98-4BCD-304A-AE2F-9819F5A3ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E1476-69D7-464C-9DD4-17D91170D41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15440" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="442">
   <si>
     <t>habitat</t>
   </si>
@@ -3561,6 +3561,246 @@
   </si>
   <si>
     <t>North Pender Island; log dump beach with navy channel</t>
+  </si>
+  <si>
+    <t>Saturna Island; Monarch head</t>
+  </si>
+  <si>
+    <t>Saturna Island</t>
+  </si>
+  <si>
+    <t>Artemisia campestris</t>
+  </si>
+  <si>
+    <t>Trifolium macraei</t>
+  </si>
+  <si>
+    <t>lots at M. h.</t>
+  </si>
+  <si>
+    <t>Saturna Island; Cactus Point</t>
+  </si>
+  <si>
+    <t>Saxifraga caespitosa</t>
+  </si>
+  <si>
+    <t>Sedum</t>
+  </si>
+  <si>
+    <t>Papaver orientale</t>
+  </si>
+  <si>
+    <t>Papaver somniferum</t>
+  </si>
+  <si>
+    <t>North Pender Island; Port Washington</t>
+  </si>
+  <si>
+    <t>North Pender Island; Port Washington; George Hill area</t>
+  </si>
+  <si>
+    <t>asst planted (underlined), well established</t>
+  </si>
+  <si>
+    <t>Calendula</t>
+  </si>
+  <si>
+    <t>Oenothera</t>
+  </si>
+  <si>
+    <t>asst planted (underlined), not much spreading</t>
+  </si>
+  <si>
+    <t>Sedum albus</t>
+  </si>
+  <si>
+    <t>sea side</t>
+  </si>
+  <si>
+    <t>around dock</t>
+  </si>
+  <si>
+    <t>Juncus acuminatus</t>
+  </si>
+  <si>
+    <t>Juncus c.f. acuminatus</t>
+  </si>
+  <si>
+    <t>several species of rush poss Juncus acuminatus</t>
+  </si>
+  <si>
+    <t>wet meadow</t>
+  </si>
+  <si>
+    <t>Taxus brevifolia, Juncus bufonius, Deschampsia elongata, Geranium carolinianum, Silene coronaria, Montia sibirica, Lepidium virginicum, Alopecurus geniculatus, Physocarpus capitatus</t>
+  </si>
+  <si>
+    <t>1947, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955</t>
+  </si>
+  <si>
+    <t>1956, 1957, 1958, 1959, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972</t>
+  </si>
+  <si>
+    <t>Stellaria calycantha, Daphne laureola, Hypochaeris radicata, Pyrola asarifolia, Sanguisorba minor, Veronica serpyllifolia, Trifolium campestre, Polygonum spergulariiforme, Brodia coronaria,  Lupinus bicolor, Agoseris heterophylla, Festuca rubra litoralis, Triteleia hyacinthina, Potentilla gracilis, Anthemis arvensis, Carex aurea, Lotus corniculatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertain of updated name </t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>North Pender Island; Magic Lake Horse padoc</t>
+  </si>
+  <si>
+    <t>[Thalaspi arvense]?</t>
+  </si>
+  <si>
+    <t>cannot decipher taxon name</t>
+  </si>
+  <si>
+    <t>North Pender Island; Magic Lake Horse</t>
+  </si>
+  <si>
+    <t>North Pender Island; Ross Smith fields</t>
+  </si>
+  <si>
+    <t>abundant</t>
+  </si>
+  <si>
+    <t>North Pender Island; fen below Magic Lake</t>
+  </si>
+  <si>
+    <t>Polygonum coccineum</t>
+  </si>
+  <si>
+    <t>Persicaria amphibia emersa</t>
+  </si>
+  <si>
+    <t>c.f. Polygonum coccineum</t>
+  </si>
+  <si>
+    <t>taxon name underlined</t>
+  </si>
+  <si>
+    <t>Hippuris vulgaris</t>
+  </si>
+  <si>
+    <t>Lycopus</t>
+  </si>
+  <si>
+    <t>Juncus balticus filiformis</t>
+  </si>
+  <si>
+    <t>Juncus balticus- filiformis</t>
+  </si>
+  <si>
+    <t>Tragopogon porrifolius, Medicago lupulina, Sisyrinchium angustifolium, Centaurea nigra, Carex oederi, Pinus contorta, Populus balsamifera, Sisyrinchium palmifolium palmifolium</t>
+  </si>
+  <si>
+    <t>1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984</t>
+  </si>
+  <si>
+    <t>recheck</t>
+  </si>
+  <si>
+    <t>Galiano Island; near G. lodge</t>
+  </si>
+  <si>
+    <t>Crataegus douglasii</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Eschscholzia californica</t>
+  </si>
+  <si>
+    <t>Galiano Island; Sturdies Bay</t>
+  </si>
+  <si>
+    <t>Galiano Island; [lain penn.]?</t>
+  </si>
+  <si>
+    <t>well established</t>
+  </si>
+  <si>
+    <t>on slope above [short cut]? to ferry</t>
+  </si>
+  <si>
+    <t>Anagallis arvensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturna Island; free school </t>
+  </si>
+  <si>
+    <t>Persicaria lapathifolia</t>
+  </si>
+  <si>
+    <t>Parker Island</t>
+  </si>
+  <si>
+    <t>Festuca myuros</t>
+  </si>
+  <si>
+    <t>Rosa gymnocarpa</t>
+  </si>
+  <si>
+    <t>Rubus leucodermis</t>
+  </si>
+  <si>
+    <t>Salix c.f. scouleriana</t>
+  </si>
+  <si>
+    <t>Salix (scouleriana)</t>
+  </si>
+  <si>
+    <t>Amlanchier alnifolia</t>
+  </si>
+  <si>
+    <t>Bromus vulgaris</t>
+  </si>
+  <si>
+    <t>Habenaria elegans</t>
+  </si>
+  <si>
+    <t>Platanthera elegans</t>
+  </si>
+  <si>
+    <t>Hordeum brachyantherum</t>
+  </si>
+  <si>
+    <t>Fritillaria lanceolata</t>
+  </si>
+  <si>
+    <t>[(dry)]?</t>
+  </si>
+  <si>
+    <t>Festuca rubra</t>
+  </si>
+  <si>
+    <t>Luzula campestris</t>
+  </si>
+  <si>
+    <t>Trisetum canescens</t>
+  </si>
+  <si>
+    <t>asterisk crossed out beside taxon name</t>
+  </si>
+  <si>
+    <t>T. dubium</t>
+  </si>
+  <si>
+    <t>Agropyron repens</t>
+  </si>
+  <si>
+    <t>Elymus repens</t>
+  </si>
+  <si>
+    <t>Orobanche uniflora</t>
+  </si>
+  <si>
+    <t>Orobanche uniflorum</t>
   </si>
 </sst>
 </file>
@@ -4059,12 +4299,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF222"/>
+  <dimension ref="A1:AF299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
+      <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12220,6 +12460,2860 @@
         <v>344</v>
       </c>
     </row>
+    <row r="223" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>8</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G223" s="3">
+        <v>19810527</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>8</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G224" s="3">
+        <v>19810527</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB224" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>8</v>
+      </c>
+      <c r="B225" s="3">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G225" s="3">
+        <v>19810527</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>8</v>
+      </c>
+      <c r="B226" s="3">
+        <v>4</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G226" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB226" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>8</v>
+      </c>
+      <c r="B227" s="3">
+        <v>5</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G227" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB227" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>8</v>
+      </c>
+      <c r="B228" s="3">
+        <v>6</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G228" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB228" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>8</v>
+      </c>
+      <c r="B229" s="3">
+        <v>7</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G229" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB229" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>8</v>
+      </c>
+      <c r="B230" s="3">
+        <v>8</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G230" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P230" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB230" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>9</v>
+      </c>
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G231" s="3">
+        <v>19810610</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB231" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32" ht="204" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>10</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G232" s="3">
+        <v>19810615</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="P232" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB232" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32" ht="204" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>10</v>
+      </c>
+      <c r="B233" s="3">
+        <v>2</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G233" s="3">
+        <v>19810615</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF233" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="234" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>10</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G234" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF234" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="235" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>10</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G235" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>10</v>
+      </c>
+      <c r="B236" s="3">
+        <v>5</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G236" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z236" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA236" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>11</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G237" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB237" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>11</v>
+      </c>
+      <c r="B238" s="3">
+        <v>2</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G238" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>11</v>
+      </c>
+      <c r="B239" s="3">
+        <v>3</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G239" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB239" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>11</v>
+      </c>
+      <c r="B240" s="3">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G240" s="3">
+        <v>19810619</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q240" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB240" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>12</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G241" s="3">
+        <v>19810707</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="242" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>12</v>
+      </c>
+      <c r="B242" s="3">
+        <v>2</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G242" s="3">
+        <v>19810707</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>12</v>
+      </c>
+      <c r="B243" s="3">
+        <v>3</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G243" s="3">
+        <v>19810707</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="244" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>12</v>
+      </c>
+      <c r="B244" s="3">
+        <v>4</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G244" s="3">
+        <v>19810707</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB244" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>17</v>
+      </c>
+      <c r="B245" s="3">
+        <v>1</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G245" s="3">
+        <v>19810718</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="246" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>17</v>
+      </c>
+      <c r="B246" s="3">
+        <v>2</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G246" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>17</v>
+      </c>
+      <c r="B247" s="3">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G247" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="248" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>17</v>
+      </c>
+      <c r="B248" s="3">
+        <v>4</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G248" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="249" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>17</v>
+      </c>
+      <c r="B249" s="3">
+        <v>5</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G249" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="250" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>17</v>
+      </c>
+      <c r="B250" s="3">
+        <v>6</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G250" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="251" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>17</v>
+      </c>
+      <c r="B251" s="3">
+        <v>7</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G251" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="252" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>17</v>
+      </c>
+      <c r="B252" s="3">
+        <v>8</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G252" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="253" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>17</v>
+      </c>
+      <c r="B253" s="3">
+        <v>9</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G253" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="254" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>17</v>
+      </c>
+      <c r="B254" s="3">
+        <v>10</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G254" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>17</v>
+      </c>
+      <c r="B255" s="3">
+        <v>11</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G255" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>17</v>
+      </c>
+      <c r="B256" s="3">
+        <v>12</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G256" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>17</v>
+      </c>
+      <c r="B257" s="3">
+        <v>13</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G257" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>17</v>
+      </c>
+      <c r="B258" s="3">
+        <v>14</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G258" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="259" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>17</v>
+      </c>
+      <c r="B259" s="3">
+        <v>15</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G259" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>17</v>
+      </c>
+      <c r="B260" s="3">
+        <v>16</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G260" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>17</v>
+      </c>
+      <c r="B261" s="3">
+        <v>17</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G261" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>17</v>
+      </c>
+      <c r="B262" s="3">
+        <v>18</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G262" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB262" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="263" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>17</v>
+      </c>
+      <c r="B263" s="3">
+        <v>19</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G263" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>17</v>
+      </c>
+      <c r="B264" s="3">
+        <v>20</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G264" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>17</v>
+      </c>
+      <c r="B265" s="3">
+        <v>21</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G265" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>18</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G266" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>18</v>
+      </c>
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>18</v>
+      </c>
+      <c r="B268" s="3">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G268" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>18</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G269" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>18</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G270" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>18</v>
+      </c>
+      <c r="B271" s="3">
+        <v>6</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G271" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>18</v>
+      </c>
+      <c r="B272" s="3">
+        <v>7</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G272" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>18</v>
+      </c>
+      <c r="B273" s="3">
+        <v>8</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G273" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>18</v>
+      </c>
+      <c r="B274" s="3">
+        <v>9</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G274" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>18</v>
+      </c>
+      <c r="B275" s="3">
+        <v>10</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>18</v>
+      </c>
+      <c r="B276" s="3">
+        <v>11</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G276" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>18</v>
+      </c>
+      <c r="B277" s="3">
+        <v>12</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G277" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>18</v>
+      </c>
+      <c r="B278" s="3">
+        <v>13</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G278" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>18</v>
+      </c>
+      <c r="B279" s="3">
+        <v>14</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G279" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>18</v>
+      </c>
+      <c r="B280" s="3">
+        <v>15</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G280" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>18</v>
+      </c>
+      <c r="B281" s="3">
+        <v>16</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G281" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>18</v>
+      </c>
+      <c r="B282" s="3">
+        <v>17</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G282" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB282" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>18</v>
+      </c>
+      <c r="B283" s="3">
+        <v>18</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G283" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>18</v>
+      </c>
+      <c r="B284" s="3">
+        <v>19</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G284" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>18</v>
+      </c>
+      <c r="B285" s="3">
+        <v>20</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G285" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>18</v>
+      </c>
+      <c r="B286" s="3">
+        <v>21</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G286" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>18</v>
+      </c>
+      <c r="B287" s="3">
+        <v>22</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G287" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>18</v>
+      </c>
+      <c r="B288" s="3">
+        <v>23</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G288" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>18</v>
+      </c>
+      <c r="B289" s="3">
+        <v>24</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G289" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB289" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>18</v>
+      </c>
+      <c r="B290" s="3">
+        <v>25</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G290" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>18</v>
+      </c>
+      <c r="B291" s="3">
+        <v>26</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G291" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>18</v>
+      </c>
+      <c r="B292" s="3">
+        <v>27</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G292" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>18</v>
+      </c>
+      <c r="B293" s="3">
+        <v>28</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G293" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>18</v>
+      </c>
+      <c r="B294" s="3">
+        <v>29</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G294" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>18</v>
+      </c>
+      <c r="B295" s="3">
+        <v>30</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G295" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>18</v>
+      </c>
+      <c r="B296" s="3">
+        <v>31</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G296" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>18</v>
+      </c>
+      <c r="B297" s="3">
+        <v>32</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G297" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>18</v>
+      </c>
+      <c r="B298" s="3">
+        <v>33</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G298" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>18</v>
+      </c>
+      <c r="B299" s="3">
+        <v>34</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G299" s="3">
+        <v>19810728</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E1476-69D7-464C-9DD4-17D91170D41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042E646-60A0-D940-93D6-EE869AB4F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4301,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
     </sheetView>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-7-occ-entry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042E646-60A0-D940-93D6-EE869AB4F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7A41D-B2CC-C54B-96D6-406A5887602F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="441">
   <si>
     <t>habitat</t>
   </si>
@@ -3446,9 +3446,6 @@
     <t xml:space="preserve">very rare in area, maybe I did not decipher name right? </t>
   </si>
   <si>
-    <t>small island on east end of Prevost Island</t>
-  </si>
-  <si>
     <t>Elymus mollis</t>
   </si>
   <si>
@@ -3473,12 +3470,6 @@
     <t>Toxicoscordion venenosum</t>
   </si>
   <si>
-    <t>on islands to south of Prevost Island</t>
-  </si>
-  <si>
-    <t>North East point of Prevost Island</t>
-  </si>
-  <si>
     <t>cannot decipher genus name</t>
   </si>
   <si>
@@ -3560,12 +3551,6 @@
     <t>Prevost Island; at dock</t>
   </si>
   <si>
-    <t>North Pender Island; log dump beach with navy channel</t>
-  </si>
-  <si>
-    <t>Saturna Island; Monarch head</t>
-  </si>
-  <si>
     <t>Saturna Island</t>
   </si>
   <si>
@@ -3596,9 +3581,6 @@
     <t>North Pender Island; Port Washington</t>
   </si>
   <si>
-    <t>North Pender Island; Port Washington; George Hill area</t>
-  </si>
-  <si>
     <t>asst planted (underlined), well established</t>
   </si>
   <si>
@@ -3650,27 +3632,15 @@
     <t>fen</t>
   </si>
   <si>
-    <t>North Pender Island; Magic Lake Horse padoc</t>
-  </si>
-  <si>
     <t>[Thalaspi arvense]?</t>
   </si>
   <si>
     <t>cannot decipher taxon name</t>
   </si>
   <si>
-    <t>North Pender Island; Magic Lake Horse</t>
-  </si>
-  <si>
-    <t>North Pender Island; Ross Smith fields</t>
-  </si>
-  <si>
     <t>abundant</t>
   </si>
   <si>
-    <t>North Pender Island; fen below Magic Lake</t>
-  </si>
-  <si>
     <t>Polygonum coccineum</t>
   </si>
   <si>
@@ -3801,6 +3771,33 @@
   </si>
   <si>
     <t>Orobanche uniflorum</t>
+  </si>
+  <si>
+    <t>North Pender Island; Navy Channel; Log Dump Beach</t>
+  </si>
+  <si>
+    <t>Prevost Island; small island on east end of island</t>
+  </si>
+  <si>
+    <t>Prevost Island; on islands to south of island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevost Island; north east point </t>
+  </si>
+  <si>
+    <t>Saturna Island; Monarch Head</t>
+  </si>
+  <si>
+    <t>North Pender Island; Port Washington; George Hill</t>
+  </si>
+  <si>
+    <t>North Pender Island; Magic Lake; horse padoc</t>
+  </si>
+  <si>
+    <t>North Pender Island; Ross Smith Fields</t>
+  </si>
+  <si>
+    <t>North Pender Island; Magic Lake; fen below lake</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4291,7 +4288,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4301,10 +4298,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
+      <selection pane="bottomLeft" activeCell="H237" sqref="H237:H240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4442,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>19810528</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -4510,7 +4507,7 @@
         <v>19810528</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -4551,7 +4548,7 @@
         <v>19810528</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -4589,7 +4586,7 @@
         <v>19810528</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -4628,7 +4625,7 @@
         <v>19810528</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -4667,7 +4664,7 @@
         <v>19810528</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -4705,7 +4702,7 @@
         <v>19810528</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -4744,7 +4741,7 @@
         <v>19810528</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -4783,7 +4780,7 @@
         <v>19810528</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -4822,7 +4819,7 @@
         <v>19810528</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -4862,7 +4859,7 @@
         <v>19810528</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -4901,7 +4898,7 @@
         <v>19810528</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -4944,7 +4941,7 @@
         <v>19810528</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>19</v>
@@ -4984,7 +4981,7 @@
         <v>19810528</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
@@ -5024,7 +5021,7 @@
         <v>19810528</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>19</v>
@@ -5064,7 +5061,7 @@
         <v>19810528</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>19</v>
@@ -5104,7 +5101,7 @@
         <v>19810528</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>19</v>
@@ -5144,7 +5141,7 @@
         <v>19810528</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>19</v>
@@ -5184,7 +5181,7 @@
         <v>19810528</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>19</v>
@@ -5224,7 +5221,7 @@
         <v>19810528</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
@@ -5264,7 +5261,7 @@
         <v>19810528</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>19</v>
@@ -5304,7 +5301,7 @@
         <v>19810528</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>19</v>
@@ -11816,22 +11813,22 @@
         <v>1</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="G206" s="3">
         <v>19810528</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>19</v>
@@ -11851,22 +11848,22 @@
         <v>2</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G207" s="3">
         <v>19810528</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>19</v>
@@ -11886,22 +11883,22 @@
         <v>3</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G208" s="3">
         <v>19810528</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>19</v>
@@ -11921,22 +11918,22 @@
         <v>4</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G209" s="3">
         <v>19810528</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>19</v>
@@ -11956,22 +11953,22 @@
         <v>5</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G210" s="3">
         <v>19810528</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>19</v>
@@ -11991,22 +11988,22 @@
         <v>6</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="G211" s="3">
         <v>19810528</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>332</v>
+        <v>434</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>19</v>
@@ -12026,16 +12023,16 @@
         <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G212" s="3">
         <v>19810528</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I212" s="3" t="s">
         <v>19</v>
@@ -12047,7 +12044,7 @@
         <v>22</v>
       </c>
       <c r="AF212" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -12058,22 +12055,22 @@
         <v>8</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G213" s="3">
         <v>19810528</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>19</v>
@@ -12085,7 +12082,7 @@
         <v>22</v>
       </c>
       <c r="AB213" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -12096,16 +12093,16 @@
         <v>9</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G214" s="3">
         <v>19810528</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>19</v>
@@ -12117,7 +12114,7 @@
         <v>22</v>
       </c>
       <c r="AF214" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -12128,22 +12125,22 @@
         <v>10</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G215" s="3">
         <v>19810528</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>19</v>
@@ -12163,22 +12160,22 @@
         <v>11</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G216" s="3">
         <v>19810528</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>19</v>
@@ -12190,16 +12187,16 @@
         <v>22</v>
       </c>
       <c r="R216" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z216" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA216" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Z216" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA216" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="AB216" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12210,22 +12207,22 @@
         <v>12</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G217" s="3">
         <v>19810528</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>19</v>
@@ -12237,13 +12234,13 @@
         <v>22</v>
       </c>
       <c r="R217" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z217" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA217" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="Z217" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA217" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12254,22 +12251,22 @@
         <v>13</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G218" s="3">
         <v>19810528</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>19</v>
@@ -12281,13 +12278,13 @@
         <v>22</v>
       </c>
       <c r="R218" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z218" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA218" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="Z218" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA218" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="219" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12298,22 +12295,22 @@
         <v>14</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G219" s="3">
         <v>19810528</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>19</v>
@@ -12325,13 +12322,13 @@
         <v>22</v>
       </c>
       <c r="R219" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z219" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA219" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="Z219" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA219" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12342,22 +12339,22 @@
         <v>15</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G220" s="3">
         <v>19810528</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>19</v>
@@ -12369,16 +12366,16 @@
         <v>22</v>
       </c>
       <c r="R220" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z220" s="3">
         <v>1</v>
       </c>
       <c r="AA220" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AB220" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="221" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12389,34 +12386,34 @@
         <v>16</v>
       </c>
       <c r="C221" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G221" s="3">
+        <v>19810528</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB221" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G221" s="3">
-        <v>19810528</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J221" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K221" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R221" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB221" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="AC221" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF221" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -12442,7 +12439,7 @@
         <v>19810528</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>19</v>
@@ -12454,10 +12451,10 @@
         <v>22</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R222" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -12468,22 +12465,22 @@
         <v>1</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G223" s="3">
         <v>19810527</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>19</v>
@@ -12492,7 +12489,7 @@
         <v>20</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -12503,22 +12500,22 @@
         <v>2</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G224" s="3">
         <v>19810527</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>19</v>
@@ -12527,10 +12524,10 @@
         <v>20</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AB224" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -12541,10 +12538,10 @@
         <v>3</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>18</v>
@@ -12556,7 +12553,7 @@
         <v>19810527</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>19</v>
@@ -12565,7 +12562,7 @@
         <v>20</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="226" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12576,22 +12573,22 @@
         <v>4</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G226" s="3">
         <v>19810610</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>19</v>
@@ -12603,13 +12600,13 @@
         <v>24</v>
       </c>
       <c r="P226" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB226" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12620,22 +12617,22 @@
         <v>5</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G227" s="3">
         <v>19810610</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>19</v>
@@ -12647,13 +12644,13 @@
         <v>24</v>
       </c>
       <c r="P227" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB227" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12664,22 +12661,22 @@
         <v>6</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G228" s="3">
         <v>19810610</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>19</v>
@@ -12691,13 +12688,13 @@
         <v>24</v>
       </c>
       <c r="P228" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB228" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12708,22 +12705,22 @@
         <v>7</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G229" s="3">
         <v>19810610</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I229" s="3" t="s">
         <v>19</v>
@@ -12735,13 +12732,13 @@
         <v>24</v>
       </c>
       <c r="P229" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB229" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12752,22 +12749,22 @@
         <v>8</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G230" s="3">
         <v>19810610</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>19</v>
@@ -12779,13 +12776,13 @@
         <v>24</v>
       </c>
       <c r="P230" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB230" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -12796,22 +12793,22 @@
         <v>1</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G231" s="3">
         <v>19810610</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>19</v>
@@ -12823,19 +12820,19 @@
         <v>24</v>
       </c>
       <c r="O231" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="P231" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="P231" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="Q231" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="R231" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AB231" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:32" ht="204" x14ac:dyDescent="0.2">
@@ -12846,22 +12843,22 @@
         <v>1</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G232" s="3">
         <v>19810615</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>19</v>
@@ -12873,19 +12870,19 @@
         <v>24</v>
       </c>
       <c r="L232" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="P232" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="O232" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="P232" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="Q232" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AB232" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:32" ht="204" x14ac:dyDescent="0.2">
@@ -12911,7 +12908,7 @@
         <v>19810615</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>19</v>
@@ -12923,16 +12920,16 @@
         <v>24</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P233" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AF233" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -12943,13 +12940,13 @@
         <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G234" s="3">
         <v>19810619</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>19</v>
@@ -12961,7 +12958,7 @@
         <v>24</v>
       </c>
       <c r="AF234" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -12987,7 +12984,7 @@
         <v>19810619</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>19</v>
@@ -13022,7 +13019,7 @@
         <v>19810619</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>19</v>
@@ -13034,10 +13031,10 @@
         <v>24</v>
       </c>
       <c r="Z236" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AA236" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -13048,22 +13045,22 @@
         <v>1</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G237" s="3">
         <v>19810619</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="I237" s="3" t="s">
         <v>19</v>
@@ -13075,19 +13072,19 @@
         <v>24</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P237" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB237" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -13098,22 +13095,22 @@
         <v>2</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G238" s="3">
         <v>19810619</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>19</v>
@@ -13125,13 +13122,13 @@
         <v>24</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="239" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -13142,22 +13139,22 @@
         <v>3</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G239" s="3">
         <v>19810619</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>19</v>
@@ -13169,16 +13166,16 @@
         <v>24</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB239" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="119" x14ac:dyDescent="0.2">
@@ -13189,22 +13186,22 @@
         <v>4</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G240" s="3">
         <v>19810619</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>19</v>
@@ -13216,16 +13213,16 @@
         <v>24</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AB240" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="241" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13236,22 +13233,22 @@
         <v>1</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G241" s="3">
         <v>19810707</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I241" s="3" t="s">
         <v>19</v>
@@ -13260,7 +13257,7 @@
         <v>20</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -13271,22 +13268,22 @@
         <v>2</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G242" s="3">
         <v>19810707</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>19</v>
@@ -13295,7 +13292,7 @@
         <v>20</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -13321,7 +13318,7 @@
         <v>19810707</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I243" s="3" t="s">
         <v>19</v>
@@ -13330,7 +13327,7 @@
         <v>20</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -13341,22 +13338,22 @@
         <v>4</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G244" s="3">
         <v>19810707</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>19</v>
@@ -13365,13 +13362,13 @@
         <v>20</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="R244" s="3" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AB244" s="3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13382,22 +13379,22 @@
         <v>1</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G245" s="3">
         <v>19810718</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>19</v>
@@ -13406,10 +13403,10 @@
         <v>20</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q245" s="3">
         <v>2062</v>
@@ -13423,22 +13420,22 @@
         <v>2</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G246" s="3">
         <v>19810728</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>19</v>
@@ -13447,7 +13444,7 @@
         <v>20</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="247" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13473,7 +13470,7 @@
         <v>19810728</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>19</v>
@@ -13482,7 +13479,7 @@
         <v>20</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="248" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -13508,7 +13505,7 @@
         <v>19810728</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>19</v>
@@ -13517,7 +13514,7 @@
         <v>20</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="249" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13543,7 +13540,7 @@
         <v>19810728</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>19</v>
@@ -13552,7 +13549,7 @@
         <v>20</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13578,7 +13575,7 @@
         <v>19810728</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>19</v>
@@ -13587,7 +13584,7 @@
         <v>20</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13613,7 +13610,7 @@
         <v>19810728</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>19</v>
@@ -13622,7 +13619,7 @@
         <v>20</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13633,22 +13630,22 @@
         <v>8</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G252" s="3">
         <v>19810728</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>19</v>
@@ -13657,7 +13654,7 @@
         <v>20</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13668,22 +13665,22 @@
         <v>9</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G253" s="3">
         <v>19810728</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>19</v>
@@ -13692,7 +13689,7 @@
         <v>20</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13703,22 +13700,22 @@
         <v>10</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G254" s="3">
         <v>19810728</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>19</v>
@@ -13727,7 +13724,7 @@
         <v>20</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="255" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13753,7 +13750,7 @@
         <v>19810728</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>19</v>
@@ -13762,7 +13759,7 @@
         <v>20</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="256" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13788,7 +13785,7 @@
         <v>19810728</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I256" s="3" t="s">
         <v>19</v>
@@ -13797,7 +13794,7 @@
         <v>20</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="257" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13823,7 +13820,7 @@
         <v>19810728</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>19</v>
@@ -13832,7 +13829,7 @@
         <v>20</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13858,7 +13855,7 @@
         <v>19810728</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>19</v>
@@ -13867,7 +13864,7 @@
         <v>20</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="259" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13893,7 +13890,7 @@
         <v>19810728</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>19</v>
@@ -13902,7 +13899,7 @@
         <v>20</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="260" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13928,7 +13925,7 @@
         <v>19810728</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I260" s="3" t="s">
         <v>19</v>
@@ -13937,7 +13934,7 @@
         <v>20</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -13963,7 +13960,7 @@
         <v>19810728</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I261" s="3" t="s">
         <v>19</v>
@@ -13972,7 +13969,7 @@
         <v>20</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="262" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -13983,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>64</v>
@@ -13998,7 +13995,7 @@
         <v>19810728</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>19</v>
@@ -14007,13 +14004,13 @@
         <v>20</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="AB262" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14039,7 +14036,7 @@
         <v>19810728</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I263" s="3" t="s">
         <v>19</v>
@@ -14048,7 +14045,7 @@
         <v>20</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="264" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14074,7 +14071,7 @@
         <v>19810728</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>19</v>
@@ -14083,7 +14080,7 @@
         <v>20</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="265" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14109,7 +14106,7 @@
         <v>19810728</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>19</v>
@@ -14118,7 +14115,7 @@
         <v>20</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="266" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14144,7 +14141,7 @@
         <v>19810728</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>19</v>
@@ -14153,7 +14150,7 @@
         <v>20</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14164,10 +14161,10 @@
         <v>2</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>18</v>
@@ -14176,7 +14173,7 @@
         <v>19810728</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I267" s="3" t="s">
         <v>19</v>
@@ -14185,7 +14182,7 @@
         <v>20</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14211,7 +14208,7 @@
         <v>19810728</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I268" s="3" t="s">
         <v>19</v>
@@ -14220,7 +14217,7 @@
         <v>20</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="269" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14231,7 +14228,7 @@
         <v>4</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>102</v>
@@ -14246,7 +14243,7 @@
         <v>19810728</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I269" s="3" t="s">
         <v>19</v>
@@ -14255,7 +14252,7 @@
         <v>20</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="270" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14281,7 +14278,7 @@
         <v>19810728</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I270" s="3" t="s">
         <v>19</v>
@@ -14290,7 +14287,7 @@
         <v>20</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="271" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14316,7 +14313,7 @@
         <v>19810728</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>19</v>
@@ -14325,7 +14322,7 @@
         <v>20</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="272" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14351,7 +14348,7 @@
         <v>19810728</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>19</v>
@@ -14360,7 +14357,7 @@
         <v>20</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="273" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14371,22 +14368,22 @@
         <v>8</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G273" s="3">
         <v>19810728</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>19</v>
@@ -14395,7 +14392,7 @@
         <v>20</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="274" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14421,7 +14418,7 @@
         <v>19810728</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I274" s="3" t="s">
         <v>19</v>
@@ -14430,7 +14427,7 @@
         <v>20</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="275" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14456,7 +14453,7 @@
         <v>19810728</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I275" s="3" t="s">
         <v>19</v>
@@ -14465,7 +14462,7 @@
         <v>20</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="276" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14491,7 +14488,7 @@
         <v>19810728</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I276" s="3" t="s">
         <v>19</v>
@@ -14500,7 +14497,7 @@
         <v>20</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="277" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14526,7 +14523,7 @@
         <v>19810728</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I277" s="3" t="s">
         <v>19</v>
@@ -14535,7 +14532,7 @@
         <v>20</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="278" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14546,22 +14543,22 @@
         <v>13</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G278" s="3">
         <v>19810728</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>19</v>
@@ -14570,7 +14567,7 @@
         <v>20</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="279" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14581,22 +14578,22 @@
         <v>14</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G279" s="3">
         <v>19810728</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>19</v>
@@ -14605,7 +14602,7 @@
         <v>20</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="280" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14631,7 +14628,7 @@
         <v>19810728</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I280" s="3" t="s">
         <v>19</v>
@@ -14640,7 +14637,7 @@
         <v>20</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="281" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14666,7 +14663,7 @@
         <v>19810728</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I281" s="3" t="s">
         <v>19</v>
@@ -14675,7 +14672,7 @@
         <v>20</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="282" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14686,22 +14683,22 @@
         <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G282" s="3">
         <v>19810728</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I282" s="3" t="s">
         <v>19</v>
@@ -14710,10 +14707,10 @@
         <v>20</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB282" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="283" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14724,22 +14721,22 @@
         <v>18</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G283" s="3">
         <v>19810728</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>19</v>
@@ -14748,7 +14745,7 @@
         <v>20</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14759,22 +14756,22 @@
         <v>19</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G284" s="3">
         <v>19810728</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I284" s="3" t="s">
         <v>19</v>
@@ -14783,7 +14780,7 @@
         <v>20</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="285" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14809,7 +14806,7 @@
         <v>19810728</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>19</v>
@@ -14818,7 +14815,7 @@
         <v>20</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="286" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14844,7 +14841,7 @@
         <v>19810728</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>19</v>
@@ -14853,7 +14850,7 @@
         <v>20</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="287" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14879,7 +14876,7 @@
         <v>19810728</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>19</v>
@@ -14888,7 +14885,7 @@
         <v>20</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="288" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14914,7 +14911,7 @@
         <v>19810728</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I288" s="3" t="s">
         <v>19</v>
@@ -14923,7 +14920,7 @@
         <v>20</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -14934,22 +14931,22 @@
         <v>24</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G289" s="3">
         <v>19810728</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I289" s="3" t="s">
         <v>19</v>
@@ -14958,10 +14955,10 @@
         <v>20</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB289" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="290" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -14987,7 +14984,7 @@
         <v>19810728</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>19</v>
@@ -14996,7 +14993,7 @@
         <v>20</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15022,7 +15019,7 @@
         <v>19810728</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I291" s="3" t="s">
         <v>19</v>
@@ -15031,7 +15028,7 @@
         <v>20</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15042,7 +15039,7 @@
         <v>27</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>40</v>
@@ -15057,7 +15054,7 @@
         <v>19810728</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I292" s="3" t="s">
         <v>19</v>
@@ -15066,7 +15063,7 @@
         <v>20</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="293" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15092,7 +15089,7 @@
         <v>19810728</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I293" s="3" t="s">
         <v>19</v>
@@ -15101,7 +15098,7 @@
         <v>20</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15127,7 +15124,7 @@
         <v>19810728</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I294" s="3" t="s">
         <v>19</v>
@@ -15136,7 +15133,7 @@
         <v>20</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="295" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15147,22 +15144,22 @@
         <v>30</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G295" s="3">
         <v>19810728</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>19</v>
@@ -15171,7 +15168,7 @@
         <v>20</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15197,7 +15194,7 @@
         <v>19810728</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I296" s="3" t="s">
         <v>19</v>
@@ -15206,7 +15203,7 @@
         <v>20</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15217,22 +15214,22 @@
         <v>32</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G297" s="3">
         <v>19810728</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>19</v>
@@ -15241,7 +15238,7 @@
         <v>20</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="298" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15267,7 +15264,7 @@
         <v>19810728</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I298" s="3" t="s">
         <v>19</v>
@@ -15276,7 +15273,7 @@
         <v>20</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="299" spans="1:28" ht="17" x14ac:dyDescent="0.2">
@@ -15302,7 +15299,7 @@
         <v>19810728</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I299" s="3" t="s">
         <v>19</v>
@@ -15311,7 +15308,7 @@
         <v>20</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
